--- a/MUSCRadOncIGRT.xlsx
+++ b/MUSCRadOncIGRT.xlsx
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="998">
   <si>
     <t>DHEC RHB 4.3.9.1</t>
   </si>
@@ -3317,9 +3317,6 @@
     <t>Hi-res</t>
   </si>
   <si>
-    <t>TO.10 Contrast Resolution</t>
-  </si>
-  <si>
     <t>Contrast Detail</t>
   </si>
   <si>
@@ -3479,9 +3476,6 @@
     <t>For generator check, align kV/exposure detectors at isocenter.</t>
   </si>
   <si>
-    <t>Piranha CB2-19020491</t>
-  </si>
-  <si>
     <t>O599</t>
   </si>
   <si>
@@ -3498,6 +3492,9 @@
   </si>
   <si>
     <t>Q605</t>
+  </si>
+  <si>
+    <t>TO.16 Contrast Resolution</t>
   </si>
 </sst>
 </file>
@@ -9519,6 +9516,117 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="6" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9537,95 +9645,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="6" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="7" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9635,29 +9654,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15506,7 +15503,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ858"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O622" sqref="O622"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -15613,7 +15612,7 @@
         <v>336</v>
       </c>
       <c r="Y2" s="645" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AC2"/>
       <c r="AD2"/>
@@ -15661,7 +15660,7 @@
         <v>288</v>
       </c>
       <c r="Z3" s="1055" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AA3" s="329"/>
       <c r="AB3" s="329"/>
@@ -16847,7 +16846,7 @@
       <c r="Q23" s="243"/>
       <c r="R23" s="243"/>
       <c r="S23" s="243"/>
-      <c r="T23" s="1276" t="s">
+      <c r="T23" s="1246" t="s">
         <v>319</v>
       </c>
       <c r="U23" s="44"/>
@@ -17098,7 +17097,7 @@
       <c r="Q27" s="908"/>
       <c r="R27" s="243"/>
       <c r="S27" s="243"/>
-      <c r="T27" s="1276" t="s">
+      <c r="T27" s="1246" t="s">
         <v>325</v>
       </c>
       <c r="U27" s="44"/>
@@ -17354,7 +17353,7 @@
       <c r="Q31" s="908"/>
       <c r="R31" s="553"/>
       <c r="S31" s="243"/>
-      <c r="T31" s="1276" t="s">
+      <c r="T31" s="1246" t="s">
         <v>331</v>
       </c>
       <c r="U31" s="137"/>
@@ -18487,7 +18486,7 @@
       <c r="I56" s="105"/>
       <c r="J56" s="119" t="str">
         <f>IF($M$53=1,$T$52,IF(M58="","TBD",IF(M58=1,"YES",IF(M58=3,"NA",""))))</f>
-        <v>TBD</v>
+        <v>NA</v>
       </c>
       <c r="K56" s="371" t="str">
         <f>IF($M$53=1,"",IF(M58=2,"NO",""))</f>
@@ -18631,7 +18630,9 @@
       <c r="L58" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M58" s="610"/>
+      <c r="M58" s="610">
+        <v>3</v>
+      </c>
       <c r="N58" s="42"/>
       <c r="O58" s="104" t="s">
         <v>28</v>
@@ -18742,7 +18743,7 @@
       <c r="I60" s="105"/>
       <c r="J60" s="119" t="str">
         <f>IF(M62="","TBD",IF(M62=1,"YES",IF(M62=3,"NA","")))</f>
-        <v>TBD</v>
+        <v>NA</v>
       </c>
       <c r="K60" s="371" t="str">
         <f>IF(M62=2,"NO","")</f>
@@ -18813,7 +18814,7 @@
       <c r="I61" s="42"/>
       <c r="J61" s="119" t="str">
         <f>IF(M63="","TBD",IF(M63=1,"YES",IF(M63=3,"NA","")))</f>
-        <v>TBD</v>
+        <v>NA</v>
       </c>
       <c r="K61" s="371" t="str">
         <f>IF(M63=2,"NO","")</f>
@@ -18893,7 +18894,9 @@
       <c r="L62" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M62" s="610"/>
+      <c r="M62" s="610">
+        <v>3</v>
+      </c>
       <c r="N62" s="44"/>
       <c r="O62" s="104" t="s">
         <v>351</v>
@@ -18952,7 +18955,9 @@
       <c r="L63" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M63" s="610"/>
+      <c r="M63" s="610">
+        <v>3</v>
+      </c>
       <c r="N63" s="42"/>
       <c r="O63" s="104" t="s">
         <v>353</v>
@@ -19195,10 +19200,10 @@
       <c r="L67" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="U67" s="1247" t="s">
+      <c r="U67" s="1256" t="s">
         <v>261</v>
       </c>
-      <c r="V67" s="1248"/>
+      <c r="V67" s="1257"/>
       <c r="X67" s="668" t="s">
         <v>336</v>
       </c>
@@ -19325,10 +19330,10 @@
       <c r="G71" s="49"/>
       <c r="H71" s="49"/>
       <c r="I71" s="49"/>
-      <c r="J71" s="1245" t="s">
+      <c r="J71" s="1254" t="s">
         <v>340</v>
       </c>
-      <c r="K71" s="1246"/>
+      <c r="K71" s="1255"/>
       <c r="L71" s="682" t="s">
         <v>336</v>
       </c>
@@ -20864,7 +20869,7 @@
       </c>
       <c r="AD96" s="907" t="str">
         <f>O227</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="AE96" s="557" t="s">
         <v>707</v>
@@ -21782,7 +21787,7 @@
         <v>417</v>
       </c>
       <c r="O114" s="973" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="P114" s="418"/>
       <c r="Q114" s="683" t="str">
@@ -21891,7 +21896,7 @@
         <v>111</v>
       </c>
       <c r="O116" s="973" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="P116" s="418"/>
       <c r="Q116" s="683" t="str">
@@ -22000,7 +22005,7 @@
         <v>111</v>
       </c>
       <c r="O118" s="973" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="P118" s="418"/>
       <c r="Q118" s="683" t="str">
@@ -22104,7 +22109,7 @@
         <v>111</v>
       </c>
       <c r="O120" s="973" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P120" s="418"/>
       <c r="Q120" s="683" t="str">
@@ -22218,7 +22223,7 @@
         <v>111</v>
       </c>
       <c r="O122" s="973" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="P122" s="418"/>
       <c r="Q122" s="683" t="str">
@@ -22465,11 +22470,11 @@
       <c r="AE126" s="543" t="s">
         <v>520</v>
       </c>
-      <c r="AH126" s="1240" t="str">
+      <c r="AH126" s="1275" t="str">
         <f>ROUND(I605,1)&amp;" kV"</f>
         <v>80 kV</v>
       </c>
-      <c r="AI126" s="1240"/>
+      <c r="AI126" s="1275"/>
     </row>
     <row r="127" spans="1:35" ht="11.25" customHeight="1" thickBot="1">
       <c r="A127" s="604">
@@ -25589,22 +25594,22 @@
         <v>336</v>
       </c>
       <c r="M186" s="136"/>
-      <c r="O186" s="1261" t="s">
+      <c r="O186" s="1270" t="s">
         <v>438</v>
       </c>
-      <c r="P186" s="1262"/>
-      <c r="Q186" s="1261" t="s">
+      <c r="P186" s="1271"/>
+      <c r="Q186" s="1270" t="s">
         <v>439</v>
       </c>
-      <c r="R186" s="1262"/>
-      <c r="S186" s="1263" t="s">
+      <c r="R186" s="1271"/>
+      <c r="S186" s="1272" t="s">
         <v>440</v>
       </c>
-      <c r="T186" s="1264"/>
-      <c r="U186" s="1251" t="s">
+      <c r="T186" s="1273"/>
+      <c r="U186" s="1260" t="s">
         <v>444</v>
       </c>
-      <c r="V186" s="1252"/>
+      <c r="V186" s="1261"/>
       <c r="W186" s="67"/>
       <c r="X186" s="668" t="s">
         <v>336</v>
@@ -25639,28 +25644,28 @@
       <c r="L187" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M187" s="1259" t="s">
+      <c r="M187" s="1268" t="s">
         <v>445</v>
       </c>
-      <c r="N187" s="1260"/>
-      <c r="O187" s="1253" t="str">
+      <c r="N187" s="1269"/>
+      <c r="O187" s="1262" t="str">
         <f>"("&amp;TBCM_IN&amp;")"</f>
         <v>(cm)</v>
       </c>
-      <c r="P187" s="1254"/>
-      <c r="Q187" s="1253" t="str">
+      <c r="P187" s="1263"/>
+      <c r="Q187" s="1262" t="str">
         <f>"("&amp;TBCM_IN&amp;")"</f>
         <v>(cm)</v>
       </c>
-      <c r="R187" s="1254"/>
-      <c r="S187" s="1255" t="s">
+      <c r="R187" s="1263"/>
+      <c r="S187" s="1264" t="s">
         <v>441</v>
       </c>
-      <c r="T187" s="1256"/>
-      <c r="U187" s="1257" t="s">
+      <c r="T187" s="1265"/>
+      <c r="U187" s="1266" t="s">
         <v>440</v>
       </c>
-      <c r="V187" s="1258"/>
+      <c r="V187" s="1267"/>
       <c r="W187" s="67"/>
       <c r="X187" s="668" t="s">
         <v>336</v>
@@ -25764,24 +25769,24 @@
       <c r="L189" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M189" s="1266">
+      <c r="M189" s="1239">
         <v>5</v>
       </c>
-      <c r="N189" s="1267">
+      <c r="N189" s="1240">
         <v>5</v>
       </c>
-      <c r="O189" s="1268">
+      <c r="O189" s="1241">
         <f>IF(M189&lt;&gt;"",M189,IF(OR(AB70=0,AB70=""),"",AB70))</f>
         <v>5</v>
       </c>
-      <c r="P189" s="1269">
+      <c r="P189" s="1242">
         <f>IF(N189&lt;&gt;"",N189,IF(OR(AB71=0,AB71=""),"",AB71))</f>
         <v>5</v>
       </c>
-      <c r="Q189" s="1270">
+      <c r="Q189" s="1243">
         <v>5</v>
       </c>
-      <c r="R189" s="1271">
+      <c r="R189" s="1244">
         <v>5</v>
       </c>
       <c r="S189" s="599">
@@ -25839,18 +25844,18 @@
       <c r="L190" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M190" s="1266"/>
-      <c r="N190" s="1272"/>
-      <c r="O190" s="1268" t="str">
+      <c r="M190" s="1239"/>
+      <c r="N190" s="1245"/>
+      <c r="O190" s="1241" t="str">
         <f>IF(M190&lt;&gt;"",M190,IF(OR(AB72=0,AB72=""),"",AB72))</f>
         <v/>
       </c>
-      <c r="P190" s="1269" t="str">
+      <c r="P190" s="1242" t="str">
         <f>IF(N190&lt;&gt;"",N190,IF(OR(AB73=0,AB73=""),"",AB73))</f>
         <v/>
       </c>
-      <c r="Q190" s="1270"/>
-      <c r="R190" s="1271"/>
+      <c r="Q190" s="1243"/>
+      <c r="R190" s="1244"/>
       <c r="S190" s="600" t="str">
         <f>IF(OR(O190="",O190=0,Q190="",Q190=0,$M$175&lt;&gt;1),"NA",IF($U$182="","TBD",ABS(O190-Q190)/$U$182))</f>
         <v>NA</v>
@@ -27807,16 +27812,14 @@
       </c>
       <c r="O227" s="738" t="str">
         <f>IF(O228&lt;&gt;"",O228,IF(OR(AB96="",AB96=0),"Unknown",AB96))</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="P227" s="41"/>
       <c r="Q227" s="41"/>
       <c r="R227" s="1080" t="s">
         <v>681</v>
       </c>
-      <c r="S227" s="1081">
-        <v>43549</v>
-      </c>
+      <c r="S227" s="1081"/>
       <c r="T227" s="49"/>
       <c r="U227" s="49"/>
       <c r="V227" s="49"/>
@@ -27866,16 +27869,14 @@
         <v>73</v>
       </c>
       <c r="O228" s="1051" t="s">
-        <v>992</v>
+        <v>680</v>
       </c>
       <c r="P228" s="49"/>
       <c r="Q228" s="49"/>
       <c r="R228" s="1080" t="s">
         <v>684</v>
       </c>
-      <c r="S228" s="1082">
-        <v>44280</v>
-      </c>
+      <c r="S228" s="1082"/>
       <c r="T228" s="49"/>
       <c r="U228" s="49"/>
       <c r="V228" s="49"/>
@@ -30596,7 +30597,7 @@
       </c>
       <c r="O274" s="110" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="P274" s="215"/>
       <c r="Q274" s="41"/>
@@ -33090,10 +33091,10 @@
         <v>440</v>
       </c>
       <c r="G311" s="833"/>
-      <c r="H311" s="1241" t="s">
+      <c r="H311" s="1276" t="s">
         <v>444</v>
       </c>
-      <c r="I311" s="1242"/>
+      <c r="I311" s="1277"/>
       <c r="J311" s="437"/>
       <c r="K311" s="67"/>
       <c r="L311" s="682" t="s">
@@ -33866,7 +33867,7 @@
       </c>
       <c r="O325" s="110" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="P325" s="215"/>
       <c r="Q325" s="41"/>
@@ -34037,7 +34038,7 @@
         <v/>
       </c>
       <c r="AE328" s="557" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AF328" s="543"/>
       <c r="AJ328" s="329"/>
@@ -34096,7 +34097,7 @@
         <v/>
       </c>
       <c r="AE329" s="557" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AF329" s="543"/>
       <c r="AJ329" s="329"/>
@@ -34155,7 +34156,7 @@
         <v/>
       </c>
       <c r="AE330" s="557" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AF330" s="543"/>
       <c r="AJ330" s="329"/>
@@ -34255,7 +34256,7 @@
         <v/>
       </c>
       <c r="AE332" s="557" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="AJ332" s="329"/>
     </row>
@@ -34306,7 +34307,7 @@
         <v/>
       </c>
       <c r="AE333" s="557" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AJ333" s="329"/>
     </row>
@@ -34383,7 +34384,7 @@
         <v/>
       </c>
       <c r="AE334" s="557" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AJ334" s="329"/>
     </row>
@@ -35978,24 +35979,24 @@
       </c>
       <c r="D362" s="110" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="E362" s="215"/>
       <c r="F362" s="1079"/>
       <c r="G362" s="48" t="s">
         <v>681</v>
       </c>
-      <c r="H362" s="1083">
+      <c r="H362" s="1083" t="str">
         <f>IF(S227="","",S227)</f>
-        <v>43549</v>
+        <v/>
       </c>
       <c r="I362" s="49"/>
       <c r="J362" s="48" t="s">
         <v>684</v>
       </c>
-      <c r="K362" s="1084">
+      <c r="K362" s="1084" t="str">
         <f>IF(S228="","",S228)</f>
-        <v>44280</v>
+        <v/>
       </c>
       <c r="L362" s="682" t="s">
         <v>336</v>
@@ -37081,7 +37082,7 @@
       </c>
       <c r="O381" s="55" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="P381" s="41"/>
       <c r="Q381" s="41"/>
@@ -38249,7 +38250,7 @@
       </c>
       <c r="D403" s="110" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="E403" s="215"/>
       <c r="F403" s="41"/>
@@ -41585,7 +41586,7 @@
       </c>
       <c r="D467" s="110" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="E467" s="215"/>
       <c r="F467" s="41"/>
@@ -45425,7 +45426,7 @@
       </c>
       <c r="D533" s="55" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="E533" s="41"/>
       <c r="F533" s="41"/>
@@ -45774,7 +45775,7 @@
       <c r="Q540" s="49"/>
       <c r="R540" s="49"/>
       <c r="S540" s="49"/>
-      <c r="T540" s="1249" t="s">
+      <c r="T540" s="1258" t="s">
         <v>782</v>
       </c>
       <c r="U540" s="49"/>
@@ -45844,7 +45845,7 @@
       <c r="S541" s="97" t="s">
         <v>783</v>
       </c>
-      <c r="T541" s="1250"/>
+      <c r="T541" s="1259"/>
       <c r="U541" s="49"/>
       <c r="V541" s="49"/>
       <c r="W541" s="67"/>
@@ -46387,7 +46388,7 @@
       </c>
       <c r="Q552" s="49"/>
       <c r="R552" s="341" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="S552" s="49"/>
       <c r="T552" s="49"/>
@@ -46981,7 +46982,7 @@
       <c r="M564" s="136"/>
       <c r="N564" s="49"/>
       <c r="O564" s="48" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="P564" s="1151" t="str">
         <f t="shared" ref="P564:P581" si="108">IF(S564&lt;&gt;"",S564,IF(AB271="","",AB271))</f>
@@ -47161,7 +47162,7 @@
       <c r="M568" s="136"/>
       <c r="N568" s="49"/>
       <c r="O568" s="48" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P568" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47210,7 +47211,7 @@
       <c r="M569" s="136"/>
       <c r="N569" s="49"/>
       <c r="O569" s="48" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P569" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47262,7 +47263,7 @@
       <c r="M570" s="136"/>
       <c r="N570" s="49"/>
       <c r="O570" s="48" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="P570" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47316,7 +47317,7 @@
       <c r="M571" s="136"/>
       <c r="N571" s="49"/>
       <c r="O571" s="48" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P571" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47359,7 +47360,7 @@
       <c r="M572" s="136"/>
       <c r="N572" s="49"/>
       <c r="O572" s="48" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P572" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47404,7 +47405,7 @@
       <c r="M573" s="136"/>
       <c r="N573" s="49"/>
       <c r="O573" s="48" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P573" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47451,7 +47452,7 @@
       <c r="M574" s="136"/>
       <c r="N574" s="49"/>
       <c r="O574" s="48" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="P574" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47496,7 +47497,7 @@
       <c r="M575" s="136"/>
       <c r="N575" s="49"/>
       <c r="O575" s="48" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P575" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47539,7 +47540,7 @@
       <c r="M576" s="136"/>
       <c r="N576" s="49"/>
       <c r="O576" s="48" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="P576" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47586,7 +47587,7 @@
       <c r="M577" s="136"/>
       <c r="N577" s="49"/>
       <c r="O577" s="48" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P577" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47631,7 +47632,7 @@
       <c r="M578" s="136"/>
       <c r="N578" s="49"/>
       <c r="O578" s="48" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P578" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47674,7 +47675,7 @@
       <c r="M579" s="136"/>
       <c r="N579" s="49"/>
       <c r="O579" s="48" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P579" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47721,7 +47722,7 @@
       <c r="M580" s="136"/>
       <c r="N580" s="49"/>
       <c r="O580" s="48" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="P580" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47764,7 +47765,7 @@
       <c r="M581" s="136"/>
       <c r="N581" s="49"/>
       <c r="O581" s="48" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="P581" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47900,7 +47901,7 @@
       </c>
       <c r="O584" s="110" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="P584" s="49"/>
       <c r="Q584" s="49"/>
@@ -47939,7 +47940,7 @@
       </c>
       <c r="M585" s="136"/>
       <c r="N585" s="48" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O585" s="1231">
         <v>100</v>
@@ -47981,7 +47982,7 @@
       </c>
       <c r="M586" s="136"/>
       <c r="N586" s="48" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O586" s="1231">
         <v>1</v>
@@ -48115,7 +48116,7 @@
       </c>
       <c r="M589" s="136"/>
       <c r="N589" s="48" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O589" s="127" t="str">
         <f>IF(P581="","",P581)</f>
@@ -48169,8 +48170,8 @@
         <v>336</v>
       </c>
       <c r="M590" s="136"/>
-      <c r="N590" s="1243" t="s">
-        <v>950</v>
+      <c r="N590" s="1278" t="s">
+        <v>949</v>
       </c>
       <c r="O590" s="1167"/>
       <c r="P590" s="1167"/>
@@ -48209,7 +48210,7 @@
         <v>336</v>
       </c>
       <c r="M591" s="136"/>
-      <c r="N591" s="1243"/>
+      <c r="N591" s="1278"/>
       <c r="O591" s="1167"/>
       <c r="P591" s="1167"/>
       <c r="Q591" s="1167"/>
@@ -48237,7 +48238,7 @@
         <v>336</v>
       </c>
       <c r="M592" s="136"/>
-      <c r="N592" s="1243"/>
+      <c r="N592" s="1278"/>
       <c r="O592" s="1167"/>
       <c r="P592" s="1167"/>
       <c r="Q592" s="1167"/>
@@ -48285,7 +48286,7 @@
       </c>
       <c r="M593" s="136"/>
       <c r="N593" s="1143" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O593" s="1180" t="str">
         <f>IF(O590="","",(($O$585*$O$586*AVERAGE(O590:O592)/(P$575*P$574))/100))</f>
@@ -48340,8 +48341,8 @@
         <v>336</v>
       </c>
       <c r="M594" s="136"/>
-      <c r="N594" s="1243" t="s">
-        <v>951</v>
+      <c r="N594" s="1278" t="s">
+        <v>950</v>
       </c>
       <c r="O594" s="1167"/>
       <c r="P594" s="1167"/>
@@ -48374,7 +48375,7 @@
         <v>336</v>
       </c>
       <c r="M595" s="136"/>
-      <c r="N595" s="1243"/>
+      <c r="N595" s="1278"/>
       <c r="O595" s="1167"/>
       <c r="P595" s="1167"/>
       <c r="Q595" s="1167"/>
@@ -48411,7 +48412,7 @@
         <v>336</v>
       </c>
       <c r="M596" s="136"/>
-      <c r="N596" s="1243"/>
+      <c r="N596" s="1278"/>
       <c r="O596" s="1167"/>
       <c r="P596" s="1167"/>
       <c r="Q596" s="1167"/>
@@ -48445,7 +48446,7 @@
       </c>
       <c r="M597" s="136"/>
       <c r="N597" s="1143" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O597" s="1180" t="str">
         <f>IF(O594="","",(($O$585*$O$586*AVERAGE(O594:O596)/(P$575*P$574))/100))</f>
@@ -48478,7 +48479,7 @@
       </c>
       <c r="M598" s="136"/>
       <c r="N598" s="1143" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O598" s="1180" t="str">
         <f>IF(OR(O593="",O597=""),"",(2/3)*O597+(1/3)*O593)</f>
@@ -48521,7 +48522,7 @@
       </c>
       <c r="M599" s="136"/>
       <c r="N599" s="1149" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O599" s="1180" t="str">
         <f>IF(O598="","",O598*P$575*P$574/P$576)</f>
@@ -49201,7 +49202,7 @@
       </c>
       <c r="M613" s="1184"/>
       <c r="N613" s="48" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O613" s="1167"/>
       <c r="P613" s="1167"/>
@@ -49249,7 +49250,7 @@
       </c>
       <c r="M614" s="1184"/>
       <c r="N614" s="48" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O614" s="1167"/>
       <c r="P614" s="1167"/>
@@ -49301,7 +49302,7 @@
       </c>
       <c r="M615" s="1184"/>
       <c r="N615" s="48" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O615" s="1167"/>
       <c r="P615" s="1167"/>
@@ -49353,7 +49354,7 @@
       </c>
       <c r="M616" s="1184"/>
       <c r="N616" s="48" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O616" s="1167"/>
       <c r="P616" s="1167"/>
@@ -49403,10 +49404,10 @@
       <c r="L617" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M617" s="1244" t="s">
+      <c r="M617" s="1279" t="s">
         <v>889</v>
       </c>
-      <c r="N617" s="1243"/>
+      <c r="N617" s="1278"/>
       <c r="O617" s="1167"/>
       <c r="P617" s="1167"/>
       <c r="Q617" s="1167"/>
@@ -49449,8 +49450,8 @@
       <c r="L618" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M618" s="1244"/>
-      <c r="N618" s="1243"/>
+      <c r="M618" s="1279"/>
+      <c r="N618" s="1278"/>
       <c r="O618" s="1167"/>
       <c r="P618" s="1167"/>
       <c r="Q618" s="1167"/>
@@ -49493,8 +49494,8 @@
       <c r="L619" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M619" s="1244"/>
-      <c r="N619" s="1243"/>
+      <c r="M619" s="1279"/>
+      <c r="N619" s="1278"/>
       <c r="O619" s="1167"/>
       <c r="P619" s="1167"/>
       <c r="Q619" s="1167"/>
@@ -49717,7 +49718,7 @@
         <v>31</v>
       </c>
       <c r="B625" s="1188" t="s">
-        <v>938</v>
+        <v>997</v>
       </c>
       <c r="C625" s="1233"/>
       <c r="D625" s="1233"/>
@@ -49733,7 +49734,7 @@
         <v>336</v>
       </c>
       <c r="M625" s="610"/>
-      <c r="N625" s="1185" t="s">
+      <c r="N625" s="341" t="s">
         <v>892</v>
       </c>
       <c r="O625" s="49"/>
@@ -49754,11 +49755,11 @@
         <v>32</v>
       </c>
       <c r="B626" s="129"/>
-      <c r="E626" s="1273" t="s">
+      <c r="E626" s="1280" t="s">
+        <v>938</v>
+      </c>
+      <c r="F626" s="1280" t="s">
         <v>939</v>
-      </c>
-      <c r="F626" s="1273" t="s">
-        <v>940</v>
       </c>
       <c r="H626" s="49"/>
       <c r="I626" s="97" t="s">
@@ -49796,8 +49797,8 @@
       <c r="D627" s="127" t="s">
         <v>772</v>
       </c>
-      <c r="E627" s="1274"/>
-      <c r="F627" s="1275"/>
+      <c r="E627" s="1281"/>
+      <c r="F627" s="1282"/>
       <c r="H627" s="48" t="s">
         <v>775</v>
       </c>
@@ -49980,7 +49981,7 @@
         <v>336</v>
       </c>
       <c r="M630" s="1186" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="N630" s="1167"/>
       <c r="O630" s="1167"/>
@@ -50037,7 +50038,7 @@
         <v>336</v>
       </c>
       <c r="M631" s="1186" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="N631" s="1167"/>
       <c r="O631" s="1167"/>
@@ -50094,7 +50095,7 @@
         <v>336</v>
       </c>
       <c r="M632" s="1186" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N632" s="1167"/>
       <c r="O632" s="1167"/>
@@ -50151,7 +50152,7 @@
         <v>336</v>
       </c>
       <c r="M633" s="1186" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="N633" s="1167"/>
       <c r="O633" s="1167"/>
@@ -50208,7 +50209,7 @@
         <v>336</v>
       </c>
       <c r="M634" s="1186" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="N634" s="1167"/>
       <c r="O634" s="1167"/>
@@ -50261,7 +50262,7 @@
         <v>336</v>
       </c>
       <c r="M635" s="1186" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="N635" s="1167"/>
       <c r="O635" s="1167"/>
@@ -51598,7 +51599,7 @@
       <c r="L668" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M668" s="1277"/>
+      <c r="M668" s="1247"/>
       <c r="N668" s="341" t="s">
         <v>930</v>
       </c>
@@ -53358,7 +53359,7 @@
         <v>3</v>
       </c>
       <c r="B729" s="1228" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C729" s="1217"/>
       <c r="D729" s="118" t="s">
@@ -53980,7 +53981,7 @@
       </c>
       <c r="D749" s="55" t="str">
         <f>IF($O$227="","",$O$227)</f>
-        <v>Piranha CB2-19020491</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="E749" s="41"/>
       <c r="F749" s="41"/>
@@ -54076,7 +54077,7 @@
       <c r="B753" s="136"/>
       <c r="C753" s="341"/>
       <c r="D753" s="48" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E753" s="1153" t="str">
         <f>IF(O589="","",O589)</f>
@@ -54112,7 +54113,7 @@
       <c r="B754" s="136"/>
       <c r="C754" s="1165"/>
       <c r="D754" s="1166" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E754" s="1199" t="str">
         <f>IF(O590="","",O593)</f>
@@ -54133,7 +54134,7 @@
       <c r="J754" s="1222">
         <v>25</v>
       </c>
-      <c r="K754" s="1281">
+      <c r="K754" s="1251">
         <v>30</v>
       </c>
       <c r="L754" s="682" t="s">
@@ -54150,7 +54151,7 @@
       <c r="B755" s="136"/>
       <c r="C755" s="1165"/>
       <c r="D755" s="1166" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E755" s="1156" t="str">
         <f>IF(O594="","",O597)</f>
@@ -54171,7 +54172,7 @@
       <c r="J755" s="1141">
         <v>75</v>
       </c>
-      <c r="K755" s="1282">
+      <c r="K755" s="1252">
         <v>80</v>
       </c>
       <c r="L755" s="682" t="s">
@@ -54209,7 +54210,7 @@
       <c r="J756" s="1141">
         <v>15</v>
       </c>
-      <c r="K756" s="1282">
+      <c r="K756" s="1252">
         <v>20</v>
       </c>
       <c r="L756" s="682" t="s">
@@ -54226,7 +54227,7 @@
       <c r="B757" s="136"/>
       <c r="C757" s="341"/>
       <c r="D757" s="48" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E757" s="1221">
         <f>IF(O600="","",O600)</f>
@@ -54247,7 +54248,7 @@
       <c r="J757" s="1141">
         <v>7.5</v>
       </c>
-      <c r="K757" s="1282">
+      <c r="K757" s="1252">
         <v>10</v>
       </c>
       <c r="L757" s="682" t="s">
@@ -54264,17 +54265,17 @@
       <c r="B758" s="136"/>
       <c r="C758" s="341"/>
       <c r="D758" s="48" t="s">
-        <v>943</v>
-      </c>
-      <c r="E758" s="1278">
+        <v>942</v>
+      </c>
+      <c r="E758" s="1248">
         <f>IF(O601="","",O601)</f>
         <v>32</v>
       </c>
-      <c r="F758" s="1279">
+      <c r="F758" s="1249">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="G758" s="1280">
+      <c r="G758" s="1250">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
@@ -54282,10 +54283,10 @@
       <c r="I758" s="1175" t="s">
         <v>882</v>
       </c>
-      <c r="J758" s="1279">
+      <c r="J758" s="1249">
         <v>35</v>
       </c>
-      <c r="K758" s="1283">
+      <c r="K758" s="1253">
         <v>40</v>
       </c>
       <c r="L758" s="682" t="s">
@@ -54302,7 +54303,7 @@
       <c r="B759" s="136"/>
       <c r="C759" s="341"/>
       <c r="D759" s="48" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E759" s="1159" t="str">
         <f>IF(O602="","",O602)</f>
@@ -54334,7 +54335,7 @@
       <c r="B760" s="136"/>
       <c r="C760" s="341"/>
       <c r="D760" s="48" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E760" s="1162" t="str">
         <f>IF(O604="","",O604)</f>
@@ -54398,7 +54399,7 @@
       <c r="B762" s="136"/>
       <c r="C762" s="341"/>
       <c r="D762" s="48" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E762" s="1206" t="str">
         <f>IF(O606="","",O606)</f>
@@ -54705,7 +54706,7 @@
       </c>
       <c r="B773" s="1184"/>
       <c r="C773" s="48" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D773" s="1213" t="str">
         <f>IF(O620="","",O620)</f>
@@ -56047,10 +56048,10 @@
       </c>
       <c r="B820" s="1184"/>
       <c r="C820" s="341"/>
-      <c r="D820" s="1239" t="s">
+      <c r="D820" s="1274" t="s">
         <v>786</v>
       </c>
-      <c r="E820" s="1239"/>
+      <c r="E820" s="1274"/>
       <c r="F820" s="49"/>
       <c r="G820" s="49"/>
       <c r="H820" s="341"/>
@@ -56163,7 +56164,7 @@
       </c>
       <c r="B824" s="1184"/>
       <c r="C824" s="48" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D824" s="1225" t="str">
         <f t="shared" si="141"/>
@@ -57122,6 +57123,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="D820:E820"/>
+    <mergeCell ref="AH126:AI126"/>
+    <mergeCell ref="H311:I311"/>
+    <mergeCell ref="N590:N592"/>
+    <mergeCell ref="N594:N596"/>
+    <mergeCell ref="M617:N619"/>
+    <mergeCell ref="E626:E627"/>
+    <mergeCell ref="F626:F627"/>
     <mergeCell ref="J71:K71"/>
     <mergeCell ref="U67:V67"/>
     <mergeCell ref="T540:T541"/>
@@ -57134,14 +57143,6 @@
     <mergeCell ref="O186:P186"/>
     <mergeCell ref="Q186:R186"/>
     <mergeCell ref="S186:T186"/>
-    <mergeCell ref="D820:E820"/>
-    <mergeCell ref="AH126:AI126"/>
-    <mergeCell ref="H311:I311"/>
-    <mergeCell ref="N590:N592"/>
-    <mergeCell ref="N594:N596"/>
-    <mergeCell ref="M617:N619"/>
-    <mergeCell ref="E626:E627"/>
-    <mergeCell ref="F626:F627"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="T2:T5">
@@ -57477,7 +57478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG153"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A88" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -57507,10 +57510,10 @@
       <c r="P1" s="1013"/>
       <c r="Q1" s="1013"/>
       <c r="R1" s="1014"/>
-      <c r="T1" s="1265" t="s">
+      <c r="T1" s="1283" t="s">
         <v>664</v>
       </c>
-      <c r="U1" s="1265"/>
+      <c r="U1" s="1283"/>
       <c r="W1" s="331"/>
       <c r="X1" s="411" t="s">
         <v>18</v>

--- a/MUSCRadOncIGRT.xlsx
+++ b/MUSCRadOncIGRT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr saveExternalLinkValues="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1859CE2-3790-49C6-88A1-D64DC71A4A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen_form" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
     <definedName name="TO16Values">Tables!$A$127:$O$139</definedName>
     <definedName name="Z_E3496B94_97EB_4AAE_9FD7_F66109A2B11F_.wvu.PrintArea" localSheetId="0" hidden="1">Gen_form!$B$1:$K$198,Gen_form!$B$397:$K$858,Gen_form!$B$661:$K$858</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{E3496B94-97EB-4AAE-9FD7-F66109A2B11F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" activeSheetId="1"/>
   </customWorkbookViews>
@@ -75,6 +76,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -82,12 +86,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
-    <comment ref="U464" authorId="0" shapeId="0">
+    <comment ref="U464" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H609" authorId="0" shapeId="0">
+    <comment ref="H609" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -118,13 +122,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A satisfied Microsoft Office user</author>
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I92" authorId="1" shapeId="0">
+    <comment ref="I92" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O92" authorId="1" shapeId="0">
+    <comment ref="O92" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A113" authorId="1" shapeId="0">
+    <comment ref="A113" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A127" authorId="1" shapeId="0">
+    <comment ref="A127" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3485,22 +3489,22 @@
     <t>Q599</t>
   </si>
   <si>
-    <t>O605</t>
-  </si>
-  <si>
-    <t>P605</t>
-  </si>
-  <si>
-    <t>Q605</t>
-  </si>
-  <si>
     <t>TO.16 Contrast Resolution</t>
+  </si>
+  <si>
+    <t>O606</t>
+  </si>
+  <si>
+    <t>Q606</t>
+  </si>
+  <si>
+    <t>P606</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="20">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000#"/>
@@ -9659,12 +9663,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="COMMENT" xfId="1"/>
+    <cellStyle name="COMMENT" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_GEN_FORM" xfId="2"/>
-    <cellStyle name="Normal_Gen_form_1" xfId="3"/>
+    <cellStyle name="Normal_GEN_FORM" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Gen_form_1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
-    <cellStyle name="SUBTITLE" xfId="5"/>
+    <cellStyle name="SUBTITLE" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -12925,7 +12929,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13144,7 +13147,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13363,7 +13365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13582,7 +13583,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15080,7 +15080,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15110,7 +15116,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15499,13 +15511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ858"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O622" sqref="O622"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -34252,11 +34262,11 @@
         <v/>
       </c>
       <c r="AD332" s="936" t="str">
-        <f>IF(OR(O605="",O605=0),"",O605)</f>
+        <f>IF(OR(O606="",O606=0),"",O606)</f>
         <v/>
       </c>
       <c r="AE332" s="557" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AJ332" s="329"/>
     </row>
@@ -34307,7 +34317,7 @@
         <v/>
       </c>
       <c r="AE333" s="557" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="AJ333" s="329"/>
     </row>
@@ -34380,7 +34390,7 @@
         <v/>
       </c>
       <c r="AD334" s="936" t="str">
-        <f>IF(OR(Q605="",Q605=0),"",Q605)</f>
+        <f>IF(OR(Q606="",Q606=0),"",Q606)</f>
         <v/>
       </c>
       <c r="AE334" s="557" t="s">
@@ -48289,15 +48299,15 @@
         <v>953</v>
       </c>
       <c r="O593" s="1180" t="str">
-        <f>IF(O590="","",(($O$585*$O$586*AVERAGE(O590:O592)/(P$575*P$574))/100))</f>
+        <f>IF(O590="","",$O$585*$O$586*AVERAGE(O590:O592)/(P$575*P$574))</f>
         <v/>
       </c>
       <c r="P593" s="1180" t="str">
-        <f>IF(P590="","",(($O$585*$O$586*AVERAGE(P590:P592)/(Q$575*Q$574))/100))</f>
+        <f t="shared" ref="P593:Q593" si="113">IF(P590="","",$O$585*$O$586*AVERAGE(P590:P592)/(Q$575*Q$574))</f>
         <v/>
       </c>
       <c r="Q593" s="1180" t="str">
-        <f>IF(Q590="","",(($O$585*$O$586*AVERAGE(Q590:Q592)/(R$575*R$574))/100))</f>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="R593" s="49"/>
@@ -48449,15 +48459,15 @@
         <v>954</v>
       </c>
       <c r="O597" s="1180" t="str">
-        <f>IF(O594="","",(($O$585*$O$586*AVERAGE(O594:O596)/(P$575*P$574))/100))</f>
+        <f>IF(O594="","",$O$585*$O$586*AVERAGE(O594:O596)/(P$575*P$574))</f>
         <v/>
       </c>
       <c r="P597" s="1180" t="str">
-        <f>IF(P594="","",(($O$585*$O$586*AVERAGE(P594:P596)/(Q$575*Q$574))/100))</f>
+        <f t="shared" ref="P597:Q597" si="114">IF(P594="","",$O$585*$O$586*AVERAGE(P594:P596)/(Q$575*Q$574))</f>
         <v/>
       </c>
       <c r="Q597" s="1180" t="str">
-        <f>IF(Q594="","",(($O$585*$O$586*AVERAGE(Q594:Q596)/(R$575*R$574))/100))</f>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="R597" s="49"/>
@@ -48834,15 +48844,15 @@
         <v>424</v>
       </c>
       <c r="O605" s="127" t="str">
-        <f>IF(O599="","",IF(AND(O599&lt;=W590,O603&lt;=0.05,O604&lt;=0.2),"Pass","Fail"))</f>
+        <f>IF(O599="","",IF(AND(O599&lt;=W590,O603&lt;=0.05),"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="P605" s="127" t="str">
-        <f>IF(P599="","",IF(AND(P599&lt;=W590,P603&lt;=0.05,P604&lt;=0.2),"Pass","Fail"))</f>
+        <f>IF(P599="","",IF(AND(P599&lt;=W590,P603&lt;=0.052),"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="Q605" s="127" t="str">
-        <f>IF(Q599="","",IF(AND(Q599&lt;=W591,Q603&lt;=0.05,Q604&lt;=0.2),"Pass","Fail"))</f>
+        <f>IF(Q599="","",IF(AND(Q599&lt;=W591,Q603&lt;=0.05),"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="W605" s="67"/>
@@ -49135,19 +49145,19 @@
       <c r="E612" s="49"/>
       <c r="F612" s="49"/>
       <c r="G612" s="322">
-        <f t="shared" ref="G612:J619" si="113">T467</f>
+        <f t="shared" ref="G612:J619" si="115">T467</f>
         <v>60</v>
       </c>
       <c r="H612" s="348">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.1854545454545447</v>
       </c>
       <c r="I612" s="317">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>1.9</v>
       </c>
       <c r="J612" s="395">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.4</v>
       </c>
       <c r="K612" s="67"/>
@@ -49181,19 +49191,19 @@
       <c r="E613" s="49"/>
       <c r="F613" s="49"/>
       <c r="G613" s="322">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>70</v>
       </c>
       <c r="H613" s="348">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.6109090909090904</v>
       </c>
       <c r="I613" s="317">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="J613" s="395">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.9</v>
       </c>
       <c r="K613" s="67"/>
@@ -49229,19 +49239,19 @@
       <c r="E614" s="385"/>
       <c r="F614" s="386"/>
       <c r="G614" s="322">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>80</v>
       </c>
       <c r="H614" s="348">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>3.0363636363636357</v>
       </c>
       <c r="I614" s="317">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.6</v>
       </c>
       <c r="J614" s="395">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>3.4</v>
       </c>
       <c r="K614" s="67"/>
@@ -49281,19 +49291,19 @@
         <v>2.6</v>
       </c>
       <c r="G615" s="322">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>90</v>
       </c>
       <c r="H615" s="348">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>3.4618181818181815</v>
       </c>
       <c r="I615" s="317">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>3</v>
       </c>
       <c r="J615" s="395">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>3.8</v>
       </c>
       <c r="K615" s="67"/>
@@ -49333,19 +49343,19 @@
         <v>3</v>
       </c>
       <c r="G616" s="322">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>100</v>
       </c>
       <c r="H616" s="348">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>3.8872727272727272</v>
       </c>
       <c r="I616" s="317">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>3.4</v>
       </c>
       <c r="J616" s="395">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.3</v>
       </c>
       <c r="K616" s="67"/>
@@ -49385,19 +49395,19 @@
         <v>3.4</v>
       </c>
       <c r="G617" s="322">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>110</v>
       </c>
       <c r="H617" s="348">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.3127272727272734</v>
       </c>
       <c r="I617" s="317">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>3.8</v>
       </c>
       <c r="J617" s="395">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.8</v>
       </c>
       <c r="K617" s="67"/>
@@ -49431,19 +49441,19 @@
       <c r="E618" s="324"/>
       <c r="F618" s="324"/>
       <c r="G618" s="322">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>120</v>
       </c>
       <c r="H618" s="348">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.7381818181818192</v>
       </c>
       <c r="I618" s="317">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.2</v>
       </c>
       <c r="J618" s="395">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>5.2</v>
       </c>
       <c r="K618" s="67"/>
@@ -49475,19 +49485,19 @@
       <c r="E619" s="49"/>
       <c r="F619" s="49"/>
       <c r="G619" s="322">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>130</v>
       </c>
       <c r="H619" s="348">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>5.1636363636363649</v>
       </c>
       <c r="I619" s="317">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="J619" s="395">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>5.7</v>
       </c>
       <c r="K619" s="67"/>
@@ -49589,15 +49599,15 @@
         <v/>
       </c>
       <c r="P621" s="127" t="str">
-        <f t="shared" ref="P621:R621" si="114">IF(P620="","",IF(OR(ABS(P616-P620)&lt;=3,ABS(AVERAGE(P617:P619)-P616)/P616&lt;0.3),"Pass","Fail"))</f>
+        <f t="shared" ref="P621:R621" si="116">IF(P620="","",IF(OR(ABS(P616-P620)&lt;=3,ABS(AVERAGE(P617:P619)-P616)/P616&lt;0.3),"Pass","Fail"))</f>
         <v/>
       </c>
       <c r="Q621" s="127" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="R621" s="127" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="S621" s="341"/>
@@ -49718,7 +49728,7 @@
         <v>31</v>
       </c>
       <c r="B625" s="1188" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C625" s="1233"/>
       <c r="D625" s="1233"/>
@@ -49803,7 +49813,7 @@
         <v>775</v>
       </c>
       <c r="I627" s="1180" t="str">
-        <f t="shared" ref="I627:I634" si="115">IF(S542="","",S542)</f>
+        <f t="shared" ref="I627:I634" si="117">IF(S542="","",S542)</f>
         <v/>
       </c>
       <c r="K627" s="67"/>
@@ -49838,11 +49848,11 @@
         <v>11.1</v>
       </c>
       <c r="D628" s="1005">
-        <f t="shared" ref="D628:D639" si="116">SQRT(PI()*(C628/2)^2)</f>
+        <f t="shared" ref="D628:D639" si="118">SQRT(PI()*(C628/2)^2)</f>
         <v>9.8371188725256129</v>
       </c>
       <c r="E628" s="1142" t="str">
-        <f t="shared" ref="E628:E639" si="117">IF(N546="","",HLOOKUP(N546,TO16Values,MATCH($M546,TO16Group,0)))</f>
+        <f t="shared" ref="E628:E639" si="119">IF(N546="","",HLOOKUP(N546,TO16Values,MATCH($M546,TO16Group,0)))</f>
         <v/>
       </c>
       <c r="F628" s="1005" t="str">
@@ -49853,7 +49863,7 @@
         <v>776</v>
       </c>
       <c r="I628" s="1180" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="K628" s="67"/>
@@ -49902,11 +49912,11 @@
         <v>8</v>
       </c>
       <c r="D629" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>7.0898154036220635</v>
       </c>
       <c r="E629" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F629" s="1005" t="str">
@@ -49917,7 +49927,7 @@
         <v>777</v>
       </c>
       <c r="I629" s="1180" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J629" s="49"/>
@@ -49957,11 +49967,11 @@
         <v>5.6</v>
       </c>
       <c r="D630" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>4.9628707825354441</v>
       </c>
       <c r="E630" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F630" s="1005" t="str">
@@ -49972,7 +49982,7 @@
         <v>778</v>
       </c>
       <c r="I630" s="1180" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J630" s="49"/>
@@ -50014,11 +50024,11 @@
         <v>4</v>
       </c>
       <c r="D631" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>3.5449077018110318</v>
       </c>
       <c r="E631" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F631" s="1005" t="str">
@@ -50029,7 +50039,7 @@
         <v>779</v>
       </c>
       <c r="I631" s="1180" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J631" s="36"/>
@@ -50071,11 +50081,11 @@
         <v>2.8</v>
       </c>
       <c r="D632" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>2.4814353912677221</v>
       </c>
       <c r="E632" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F632" s="1005" t="str">
@@ -50086,7 +50096,7 @@
         <v>780</v>
       </c>
       <c r="I632" s="1180" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J632" s="49"/>
@@ -50128,11 +50138,11 @@
         <v>2</v>
       </c>
       <c r="D633" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1.7724538509055159</v>
       </c>
       <c r="E633" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F633" s="1005" t="str">
@@ -50143,7 +50153,7 @@
         <v>781</v>
       </c>
       <c r="I633" s="1238" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J633" s="49"/>
@@ -50185,11 +50195,11 @@
         <v>1.4</v>
       </c>
       <c r="D634" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1.240717695633861</v>
       </c>
       <c r="E634" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F634" s="1005" t="str">
@@ -50200,7 +50210,7 @@
         <v>424</v>
       </c>
       <c r="I634" s="1180" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J634" s="49"/>
@@ -50242,11 +50252,11 @@
         <v>1</v>
       </c>
       <c r="D635" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.88622692545275794</v>
       </c>
       <c r="E635" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F635" s="1005" t="str">
@@ -50289,11 +50299,11 @@
         <v>0.7</v>
       </c>
       <c r="D636" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.62035884781693051</v>
       </c>
       <c r="E636" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F636" s="1005" t="str">
@@ -50338,11 +50348,11 @@
         <v>0.5</v>
       </c>
       <c r="D637" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.44311346272637897</v>
       </c>
       <c r="E637" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F637" s="1005" t="str">
@@ -50387,11 +50397,11 @@
         <v>0.35</v>
       </c>
       <c r="D638" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.31017942390846526</v>
       </c>
       <c r="E638" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F638" s="1005" t="str">
@@ -50434,11 +50444,11 @@
         <v>0.25</v>
       </c>
       <c r="D639" s="1005">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.22155673136318949</v>
       </c>
       <c r="E639" s="1142" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="F639" s="1005" t="str">
@@ -51354,11 +51364,11 @@
       <c r="N663" s="1167"/>
       <c r="O663" s="1167"/>
       <c r="P663" s="127" t="str">
-        <f t="shared" ref="P663:P666" si="118">IF(OR($N$662="",N663=""),"",ABS($N$662-N663))</f>
+        <f t="shared" ref="P663:P666" si="120">IF(OR($N$662="",N663=""),"",ABS($N$662-N663))</f>
         <v/>
       </c>
       <c r="Q663" s="127" t="str">
-        <f t="shared" ref="Q663:Q666" si="119">IF(N663="","",ABS(AVERAGE($N$662:$N$666)-N663))</f>
+        <f t="shared" ref="Q663:Q666" si="121">IF(N663="","",ABS(AVERAGE($N$662:$N$666)-N663))</f>
         <v/>
       </c>
       <c r="R663" s="127" t="str">
@@ -51401,11 +51411,11 @@
       <c r="N664" s="1167"/>
       <c r="O664" s="1167"/>
       <c r="P664" s="127" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="Q664" s="127" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="R664" s="127" t="str">
@@ -51450,11 +51460,11 @@
       <c r="N665" s="1167"/>
       <c r="O665" s="1167"/>
       <c r="P665" s="127" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="Q665" s="127" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="R665" s="127" t="str">
@@ -51501,11 +51511,11 @@
       <c r="N666" s="1167"/>
       <c r="O666" s="1167"/>
       <c r="P666" s="127" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="Q666" s="127" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="R666" s="127" t="str">
@@ -51582,11 +51592,11 @@
         <v/>
       </c>
       <c r="F668" s="1008" t="str">
-        <f t="shared" ref="F668:F675" si="120">IF(OR(D668="",S485=""),"",S485)</f>
+        <f t="shared" ref="F668:F675" si="122">IF(OR(D668="",S485=""),"",S485)</f>
         <v/>
       </c>
       <c r="G668" s="297" t="str">
-        <f t="shared" ref="G668:G675" si="121">IF(OR(E668="",F668=""),"",(E668-F668)/F668)</f>
+        <f t="shared" ref="G668:G675" si="123">IF(OR(E668="",F668=""),"",(E668-F668)/F668)</f>
         <v/>
       </c>
       <c r="H668" s="126" t="str">
@@ -51623,23 +51633,23 @@
       <c r="B669" s="136"/>
       <c r="C669" s="49"/>
       <c r="D669" s="209" t="str">
-        <f t="shared" ref="D669:D675" si="122">IF(OR(P486="",P486=P485),"",P486)</f>
+        <f t="shared" ref="D669:D675" si="124">IF(OR(P486="",P486=P485),"",P486)</f>
         <v/>
       </c>
       <c r="E669" s="1008" t="str">
-        <f t="shared" ref="E669:E675" si="123">IF(R486=R485,"",R486)</f>
+        <f t="shared" ref="E669:E675" si="125">IF(R486=R485,"",R486)</f>
         <v/>
       </c>
       <c r="F669" s="1008" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="G669" s="297" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="H669" s="126" t="str">
-        <f t="shared" ref="H669:H675" si="124">IF(H668="TBD","TBD",IF(OR(E669="",F669=""),"",IF(ABS(G669)&gt;0.25,"NO","YES")))</f>
+        <f t="shared" ref="H669:H675" si="126">IF(H668="TBD","TBD",IF(OR(E669="",F669=""),"",IF(ABS(G669)&gt;0.25,"NO","YES")))</f>
         <v/>
       </c>
       <c r="I669" s="49"/>
@@ -51670,23 +51680,23 @@
       <c r="B670" s="136"/>
       <c r="C670" s="49"/>
       <c r="D670" s="209" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="E670" s="1008" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="F670" s="1008" t="str">
         <f t="shared" si="122"/>
         <v/>
       </c>
-      <c r="E670" s="1008" t="str">
+      <c r="G670" s="297" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="F670" s="1008" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="G670" s="297" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
       <c r="H670" s="126" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="I670" s="49"/>
@@ -51719,23 +51729,23 @@
       <c r="B671" s="136"/>
       <c r="C671" s="49"/>
       <c r="D671" s="209" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="E671" s="1008" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="F671" s="1008" t="str">
         <f t="shared" si="122"/>
         <v/>
       </c>
-      <c r="E671" s="1008" t="str">
+      <c r="G671" s="297" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="F671" s="1008" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="G671" s="297" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
       <c r="H671" s="126" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="I671" s="49"/>
@@ -51770,23 +51780,23 @@
       <c r="B672" s="136"/>
       <c r="C672" s="49"/>
       <c r="D672" s="209" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="E672" s="1008" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="F672" s="1008" t="str">
         <f t="shared" si="122"/>
         <v/>
       </c>
-      <c r="E672" s="1008" t="str">
+      <c r="G672" s="297" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="F672" s="1008" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="G672" s="297" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
       <c r="H672" s="126" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="I672" s="49"/>
@@ -51826,23 +51836,23 @@
       <c r="B673" s="136"/>
       <c r="C673" s="49"/>
       <c r="D673" s="209" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="E673" s="1008" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="F673" s="1008" t="str">
         <f t="shared" si="122"/>
         <v/>
       </c>
-      <c r="E673" s="1008" t="str">
+      <c r="G673" s="297" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="F673" s="1008" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="G673" s="297" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
       <c r="H673" s="126" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="I673" s="49"/>
@@ -51880,23 +51890,23 @@
       <c r="B674" s="136"/>
       <c r="C674" s="49"/>
       <c r="D674" s="209" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="E674" s="1008" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="F674" s="1008" t="str">
         <f t="shared" si="122"/>
         <v/>
       </c>
-      <c r="E674" s="1008" t="str">
+      <c r="G674" s="297" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="F674" s="1008" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="G674" s="297" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
       <c r="H674" s="126" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="I674" s="49"/>
@@ -51927,23 +51937,23 @@
       <c r="B675" s="136"/>
       <c r="C675" s="49"/>
       <c r="D675" s="209" t="str">
+        <f t="shared" si="124"/>
+        <v/>
+      </c>
+      <c r="E675" s="1008" t="str">
+        <f t="shared" si="125"/>
+        <v/>
+      </c>
+      <c r="F675" s="1008" t="str">
         <f t="shared" si="122"/>
         <v/>
       </c>
-      <c r="E675" s="1008" t="str">
+      <c r="G675" s="297" t="str">
         <f t="shared" si="123"/>
         <v/>
       </c>
-      <c r="F675" s="1008" t="str">
-        <f t="shared" si="120"/>
-        <v/>
-      </c>
-      <c r="G675" s="297" t="str">
-        <f t="shared" si="121"/>
-        <v/>
-      </c>
       <c r="H675" s="126" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="I675" s="253" t="s">
@@ -52115,11 +52125,11 @@
         <v/>
       </c>
       <c r="F681" s="1008" t="str">
-        <f t="shared" ref="F681:F686" si="125">IF(OR(D681="",S502=""),"",S502)</f>
+        <f t="shared" ref="F681:F686" si="127">IF(OR(D681="",S502=""),"",S502)</f>
         <v/>
       </c>
       <c r="G681" s="297" t="str">
-        <f t="shared" ref="G681:G686" si="126">IF(OR(E681="",F681=""),"",(E681-F681)/F681)</f>
+        <f t="shared" ref="G681:G686" si="128">IF(OR(E681="",F681=""),"",(E681-F681)/F681)</f>
         <v/>
       </c>
       <c r="H681" s="126" t="str">
@@ -52151,11 +52161,11 @@
         <v/>
       </c>
       <c r="F682" s="1008" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="G682" s="297" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="H682" s="126" t="str">
@@ -52188,11 +52198,11 @@
         <v/>
       </c>
       <c r="F683" s="1008" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="G683" s="297" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="H683" s="126" t="str">
@@ -52225,11 +52235,11 @@
         <v/>
       </c>
       <c r="F684" s="1008" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="G684" s="297" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="H684" s="126" t="str">
@@ -52262,11 +52272,11 @@
         <v/>
       </c>
       <c r="F685" s="1008" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="G685" s="297" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="H685" s="126" t="str">
@@ -52299,11 +52309,11 @@
         <v/>
       </c>
       <c r="F686" s="1008" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="G686" s="297" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="H686" s="126" t="str">
@@ -53392,15 +53402,15 @@
         <v>369</v>
       </c>
       <c r="D730" s="1190" t="str">
-        <f t="shared" ref="D730:D746" si="127">IF(P564="","",P564)</f>
+        <f t="shared" ref="D730:D746" si="129">IF(P564="","",P564)</f>
         <v/>
       </c>
       <c r="E730" s="1191" t="str">
-        <f t="shared" ref="E730:E746" si="128">IF(Q564="","",Q564)</f>
+        <f t="shared" ref="E730:E746" si="130">IF(Q564="","",Q564)</f>
         <v/>
       </c>
       <c r="F730" s="1196" t="str">
-        <f t="shared" ref="F730:F746" si="129">IF(R564="","",R564)</f>
+        <f t="shared" ref="F730:F746" si="131">IF(R564="","",R564)</f>
         <v/>
       </c>
       <c r="G730" s="49"/>
@@ -53424,15 +53434,15 @@
         <v>371</v>
       </c>
       <c r="D731" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E731" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F731" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G731" s="49"/>
@@ -53456,15 +53466,15 @@
         <v>426</v>
       </c>
       <c r="D732" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E732" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F732" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G732" s="49"/>
@@ -53488,15 +53498,15 @@
         <v>791</v>
       </c>
       <c r="D733" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E733" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F733" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G733" s="49"/>
@@ -53520,15 +53530,15 @@
         <v>792</v>
       </c>
       <c r="D734" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E734" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F734" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G734" s="49"/>
@@ -53552,15 +53562,15 @@
         <v>793</v>
       </c>
       <c r="D735" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E735" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F735" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G735" s="49"/>
@@ -53584,15 +53594,15 @@
         <v>794</v>
       </c>
       <c r="D736" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E736" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F736" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G736" s="49"/>
@@ -53616,15 +53626,15 @@
         <v>795</v>
       </c>
       <c r="D737" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E737" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F737" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G737" s="49"/>
@@ -53648,15 +53658,15 @@
         <v>796</v>
       </c>
       <c r="D738" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E738" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F738" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G738" s="49"/>
@@ -53680,15 +53690,15 @@
         <v>797</v>
       </c>
       <c r="D739" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E739" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F739" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G739" s="49"/>
@@ -53712,15 +53722,15 @@
         <v>798</v>
       </c>
       <c r="D740" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E740" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F740" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G740" s="49"/>
@@ -53744,15 +53754,15 @@
         <v>799</v>
       </c>
       <c r="D741" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E741" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F741" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G741" s="49"/>
@@ -53776,15 +53786,15 @@
         <v>800</v>
       </c>
       <c r="D742" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E742" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F742" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G742" s="49"/>
@@ -53808,15 +53818,15 @@
         <v>801</v>
       </c>
       <c r="D743" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E743" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F743" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G743" s="49"/>
@@ -53840,15 +53850,15 @@
         <v>802</v>
       </c>
       <c r="D744" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E744" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F744" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G744" s="49"/>
@@ -53872,15 +53882,15 @@
         <v>803</v>
       </c>
       <c r="D745" s="1192" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E745" s="1193" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F745" s="1197" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G745" s="49"/>
@@ -53904,15 +53914,15 @@
         <v>804</v>
       </c>
       <c r="D746" s="1194" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="E746" s="1195" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="F746" s="1198" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="G746" s="49"/>
@@ -54084,11 +54094,11 @@
         <v/>
       </c>
       <c r="F753" s="1154" t="str">
-        <f t="shared" ref="F753:G753" si="130">IF(P589="","",P589)</f>
+        <f t="shared" ref="F753:G753" si="132">IF(P589="","",P589)</f>
         <v/>
       </c>
       <c r="G753" s="1155" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="H753" s="49"/>
@@ -54120,11 +54130,11 @@
         <v/>
       </c>
       <c r="F754" s="1200" t="str">
-        <f t="shared" ref="F754:G754" si="131">IF(P590="","",P593)</f>
+        <f t="shared" ref="F754:G754" si="133">IF(P590="","",P593)</f>
         <v/>
       </c>
       <c r="G754" s="1201" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="H754" s="49"/>
@@ -54158,11 +54168,11 @@
         <v/>
       </c>
       <c r="F755" s="1157" t="str">
-        <f t="shared" ref="F755:G755" si="132">IF(P594="","",P597)</f>
+        <f t="shared" ref="F755:G755" si="134">IF(P594="","",P597)</f>
         <v/>
       </c>
       <c r="G755" s="1158" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v/>
       </c>
       <c r="H755" s="49"/>
@@ -54196,11 +54206,11 @@
         <v/>
       </c>
       <c r="F756" s="1203" t="str">
-        <f t="shared" ref="F756:G756" si="133">IF(P599="","",P599)</f>
+        <f t="shared" ref="F756:G756" si="135">IF(P599="","",P599)</f>
         <v/>
       </c>
       <c r="G756" s="1204" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="H756" s="49"/>
@@ -54234,11 +54244,11 @@
         <v>32</v>
       </c>
       <c r="F757" s="1222">
-        <f t="shared" ref="F757:G759" si="134">IF(P600="","",F750)</f>
+        <f t="shared" ref="F757:G759" si="136">IF(P600="","",F750)</f>
         <v>0</v>
       </c>
       <c r="G757" s="1223">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="H757" s="49"/>
@@ -54272,11 +54282,11 @@
         <v>32</v>
       </c>
       <c r="F758" s="1249">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="G758" s="1250">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="H758" s="49"/>
@@ -54310,11 +54320,11 @@
         <v/>
       </c>
       <c r="F759" s="1160" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v/>
       </c>
       <c r="G759" s="1161" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v/>
       </c>
       <c r="H759" s="49"/>
@@ -54342,11 +54352,11 @@
         <v/>
       </c>
       <c r="F760" s="1163" t="str">
-        <f t="shared" ref="F760:G760" si="135">IF(P604="","",P604)</f>
+        <f t="shared" ref="F760:G760" si="137">IF(P604="","",P604)</f>
         <v/>
       </c>
       <c r="G760" s="1164" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v/>
       </c>
       <c r="H760" s="49"/>
@@ -54374,11 +54384,11 @@
         <v/>
       </c>
       <c r="F761" s="1154" t="str">
-        <f t="shared" ref="F761:G761" si="136">IF(P605="","",P605)</f>
+        <f t="shared" ref="F761:G761" si="138">IF(P605="","",P605)</f>
         <v/>
       </c>
       <c r="G761" s="1155" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="H761" s="49"/>
@@ -54406,11 +54416,11 @@
         <v/>
       </c>
       <c r="F762" s="1207" t="str">
-        <f t="shared" ref="F762:G762" si="137">IF(P606="","",P606)</f>
+        <f t="shared" ref="F762:G762" si="139">IF(P606="","",P606)</f>
         <v/>
       </c>
       <c r="G762" s="1208" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="H762" s="49"/>
@@ -54569,19 +54579,19 @@
         <v>884</v>
       </c>
       <c r="D769" s="1205" t="str">
-        <f t="shared" ref="D769:G772" si="138">IF(O613="","",O613)</f>
+        <f t="shared" ref="D769:G772" si="140">IF(O613="","",O613)</f>
         <v/>
       </c>
       <c r="E769" s="1171" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="F769" s="1171" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="G769" s="1172" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="H769" s="49"/>
@@ -54604,19 +54614,19 @@
         <v>885</v>
       </c>
       <c r="D770" s="1212" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="E770" s="127" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="F770" s="127" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="G770" s="1174" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="H770" s="49"/>
@@ -54639,19 +54649,19 @@
         <v>887</v>
       </c>
       <c r="D771" s="1212" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="E771" s="127" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="F771" s="127" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="G771" s="1174" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="H771" s="49"/>
@@ -54674,19 +54684,19 @@
         <v>888</v>
       </c>
       <c r="D772" s="1212" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="E772" s="127" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="F772" s="127" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="G772" s="1174" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="H772" s="49"/>
@@ -55243,27 +55253,27 @@
         <v>369</v>
       </c>
       <c r="D796" s="1221">
-        <f t="shared" ref="D796:I803" si="139">IF(N628="","",N628)</f>
+        <f t="shared" ref="D796:I803" si="141">IF(N628="","",N628)</f>
         <v>80</v>
       </c>
       <c r="E796" s="1222">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>100</v>
       </c>
       <c r="F796" s="1222">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>110</v>
       </c>
       <c r="G796" s="1222">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>120</v>
       </c>
       <c r="H796" s="1222">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>130</v>
       </c>
       <c r="I796" s="1223">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>140</v>
       </c>
       <c r="J796" s="49"/>
@@ -55284,27 +55294,27 @@
         <v>426</v>
       </c>
       <c r="D797" s="1212" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="E797" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="F797" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="G797" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H797" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="I797" s="1174" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J797" s="49"/>
@@ -55325,27 +55335,27 @@
         <v>895</v>
       </c>
       <c r="D798" s="1212" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="E798" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="F798" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="G798" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H798" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="I798" s="1174" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J798" s="49"/>
@@ -55366,27 +55376,27 @@
         <v>896</v>
       </c>
       <c r="D799" s="1212" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="E799" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="F799" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="G799" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H799" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="I799" s="1174" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J799" s="49"/>
@@ -55407,27 +55417,27 @@
         <v>897</v>
       </c>
       <c r="D800" s="1212" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="E800" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="F800" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="G800" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H800" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="I800" s="1174" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J800" s="49"/>
@@ -55448,27 +55458,27 @@
         <v>898</v>
       </c>
       <c r="D801" s="1212" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="E801" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="F801" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="G801" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H801" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="I801" s="1174" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J801" s="49"/>
@@ -55489,27 +55499,27 @@
         <v>899</v>
       </c>
       <c r="D802" s="1212" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="E802" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="F802" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="G802" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H802" s="127" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="I802" s="1174" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J802" s="49"/>
@@ -55530,27 +55540,27 @@
         <v>900</v>
       </c>
       <c r="D803" s="186" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="E803" s="1176" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="F803" s="1176" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="G803" s="1176" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H803" s="1176" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="I803" s="189" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J803" s="49"/>
@@ -55692,23 +55702,23 @@
         <v>905</v>
       </c>
       <c r="E809" s="1205" t="str">
-        <f t="shared" ref="E809:I815" si="140">IF(O641="","",O641)</f>
+        <f t="shared" ref="E809:I815" si="142">IF(O641="","",O641)</f>
         <v/>
       </c>
       <c r="F809" s="1171" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G809" s="1171" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H809" s="1171" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="I809" s="1172" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="J809" s="341"/>
@@ -55730,23 +55740,23 @@
         <v>906</v>
       </c>
       <c r="E810" s="1212" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F810" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G810" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H810" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="I810" s="1174" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="J810" s="341"/>
@@ -55768,23 +55778,23 @@
         <v>907</v>
       </c>
       <c r="E811" s="1212" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F811" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G811" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H811" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="I811" s="1174" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="J811" s="341"/>
@@ -55806,23 +55816,23 @@
         <v>890</v>
       </c>
       <c r="E812" s="1212" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F812" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G812" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H812" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="I812" s="1174" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="J812" s="341"/>
@@ -55844,23 +55854,23 @@
         <v>908</v>
       </c>
       <c r="E813" s="1212" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F813" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G813" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H813" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="I813" s="1174" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="J813" s="341"/>
@@ -55882,23 +55892,23 @@
         <v>909</v>
       </c>
       <c r="E814" s="186" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F814" s="1176" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G814" s="1176" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H814" s="1176" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="I814" s="189" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="J814" s="341"/>
@@ -55920,23 +55930,23 @@
         <v>424</v>
       </c>
       <c r="E815" s="1153" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F815" s="1154" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G815" s="1154" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H815" s="1154" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="I815" s="1155" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="J815" s="341"/>
@@ -56099,11 +56109,11 @@
         <v>914</v>
       </c>
       <c r="D822" s="1224" t="str">
-        <f t="shared" ref="D822:E826" si="141">IF(N654="","",N654)</f>
+        <f t="shared" ref="D822:E826" si="143">IF(N654="","",N654)</f>
         <v/>
       </c>
       <c r="E822" s="1224" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F822" s="49"/>
@@ -56133,11 +56143,11 @@
         <v>173</v>
       </c>
       <c r="D823" s="1227" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E823" s="1225" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F823" s="49"/>
@@ -56167,11 +56177,11 @@
         <v>948</v>
       </c>
       <c r="D824" s="1225" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E824" s="1225" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F824" s="49"/>
@@ -56196,11 +56206,11 @@
         <v>919</v>
       </c>
       <c r="D825" s="1225" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E825" s="1225" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F825" s="49"/>
@@ -56225,11 +56235,11 @@
         <v>920</v>
       </c>
       <c r="D826" s="1226" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E826" s="1226" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F826" s="49"/>
@@ -56401,23 +56411,23 @@
         <v>925</v>
       </c>
       <c r="C833" s="1205" t="str">
-        <f t="shared" ref="C833:G837" si="142">IF(N662="","",N662)</f>
+        <f t="shared" ref="C833:G837" si="144">IF(N662="","",N662)</f>
         <v/>
       </c>
       <c r="D833" s="1172" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="E833" s="1205" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F833" s="1171" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G833" s="1172" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H833" s="341"/>
@@ -56439,23 +56449,23 @@
         <v>926</v>
       </c>
       <c r="C834" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="D834" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="E834" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F834" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G834" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H834" s="341"/>
@@ -56477,23 +56487,23 @@
         <v>927</v>
       </c>
       <c r="C835" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="D835" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="E835" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F835" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G835" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H835" s="341"/>
@@ -56515,23 +56525,23 @@
         <v>928</v>
       </c>
       <c r="C836" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="D836" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="E836" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F836" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G836" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H836" s="341"/>
@@ -56553,23 +56563,23 @@
         <v>929</v>
       </c>
       <c r="C837" s="186" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="D837" s="189" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="E837" s="186" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F837" s="1176" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G837" s="189" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H837" s="341"/>
@@ -57462,7 +57472,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Tables!$U$2:$U$22</xm:f>
           </x14:formula1>
@@ -57475,7 +57485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG153"/>
   <sheetViews>
     <sheetView topLeftCell="A88" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -66566,7 +66576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -66584,7 +66594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC72"/>
   <sheetViews>

--- a/MUSCRadOncIGRT.xlsx
+++ b/MUSCRadOncIGRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1859CE2-3790-49C6-88A1-D64DC71A4A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA34E6-4CDB-4C95-BB1C-D01222B8FAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <definedName name="TO16Values">Tables!$A$127:$O$139</definedName>
     <definedName name="Z_E3496B94_97EB_4AAE_9FD7_F66109A2B11F_.wvu.PrintArea" localSheetId="0" hidden="1">Gen_form!$B$1:$K$198,Gen_form!$B$397:$K$858,Gen_form!$B$661:$K$858</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{E3496B94-97EB-4AAE-9FD7-F66109A2B11F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" activeSheetId="1"/>
   </customWorkbookViews>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="997">
   <si>
     <t>DHEC RHB 4.3.9.1</t>
   </si>
@@ -3340,9 +3340,6 @@
   </si>
   <si>
     <t>Variation from indicated CTDI:</t>
-  </si>
-  <si>
-    <t>CTDIvol/mAs:</t>
   </si>
   <si>
     <t>Average beam width (mm)</t>
@@ -9571,6 +9568,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9630,33 +9654,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15622,7 +15619,7 @@
         <v>336</v>
       </c>
       <c r="Y2" s="645" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AC2"/>
       <c r="AD2"/>
@@ -15670,7 +15667,7 @@
         <v>288</v>
       </c>
       <c r="Z3" s="1055" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AA3" s="329"/>
       <c r="AB3" s="329"/>
@@ -19210,10 +19207,10 @@
       <c r="L67" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="U67" s="1256" t="s">
+      <c r="U67" s="1265" t="s">
         <v>261</v>
       </c>
-      <c r="V67" s="1257"/>
+      <c r="V67" s="1266"/>
       <c r="X67" s="668" t="s">
         <v>336</v>
       </c>
@@ -19340,10 +19337,10 @@
       <c r="G71" s="49"/>
       <c r="H71" s="49"/>
       <c r="I71" s="49"/>
-      <c r="J71" s="1254" t="s">
+      <c r="J71" s="1263" t="s">
         <v>340</v>
       </c>
-      <c r="K71" s="1255"/>
+      <c r="K71" s="1264"/>
       <c r="L71" s="682" t="s">
         <v>336</v>
       </c>
@@ -21797,7 +21794,7 @@
         <v>417</v>
       </c>
       <c r="O114" s="973" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="P114" s="418"/>
       <c r="Q114" s="683" t="str">
@@ -21906,7 +21903,7 @@
         <v>111</v>
       </c>
       <c r="O116" s="973" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="P116" s="418"/>
       <c r="Q116" s="683" t="str">
@@ -22015,7 +22012,7 @@
         <v>111</v>
       </c>
       <c r="O118" s="973" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="P118" s="418"/>
       <c r="Q118" s="683" t="str">
@@ -22119,7 +22116,7 @@
         <v>111</v>
       </c>
       <c r="O120" s="973" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="P120" s="418"/>
       <c r="Q120" s="683" t="str">
@@ -22233,7 +22230,7 @@
         <v>111</v>
       </c>
       <c r="O122" s="973" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P122" s="418"/>
       <c r="Q122" s="683" t="str">
@@ -22480,11 +22477,11 @@
       <c r="AE126" s="543" t="s">
         <v>520</v>
       </c>
-      <c r="AH126" s="1275" t="str">
+      <c r="AH126" s="1255" t="str">
         <f>ROUND(I605,1)&amp;" kV"</f>
         <v>80 kV</v>
       </c>
-      <c r="AI126" s="1275"/>
+      <c r="AI126" s="1255"/>
     </row>
     <row r="127" spans="1:35" ht="11.25" customHeight="1" thickBot="1">
       <c r="A127" s="604">
@@ -25604,22 +25601,22 @@
         <v>336</v>
       </c>
       <c r="M186" s="136"/>
-      <c r="O186" s="1270" t="s">
+      <c r="O186" s="1279" t="s">
         <v>438</v>
       </c>
-      <c r="P186" s="1271"/>
-      <c r="Q186" s="1270" t="s">
+      <c r="P186" s="1280"/>
+      <c r="Q186" s="1279" t="s">
         <v>439</v>
       </c>
-      <c r="R186" s="1271"/>
-      <c r="S186" s="1272" t="s">
+      <c r="R186" s="1280"/>
+      <c r="S186" s="1281" t="s">
         <v>440</v>
       </c>
-      <c r="T186" s="1273"/>
-      <c r="U186" s="1260" t="s">
+      <c r="T186" s="1282"/>
+      <c r="U186" s="1269" t="s">
         <v>444</v>
       </c>
-      <c r="V186" s="1261"/>
+      <c r="V186" s="1270"/>
       <c r="W186" s="67"/>
       <c r="X186" s="668" t="s">
         <v>336</v>
@@ -25654,28 +25651,28 @@
       <c r="L187" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M187" s="1268" t="s">
+      <c r="M187" s="1277" t="s">
         <v>445</v>
       </c>
-      <c r="N187" s="1269"/>
-      <c r="O187" s="1262" t="str">
+      <c r="N187" s="1278"/>
+      <c r="O187" s="1271" t="str">
         <f>"("&amp;TBCM_IN&amp;")"</f>
         <v>(cm)</v>
       </c>
-      <c r="P187" s="1263"/>
-      <c r="Q187" s="1262" t="str">
+      <c r="P187" s="1272"/>
+      <c r="Q187" s="1271" t="str">
         <f>"("&amp;TBCM_IN&amp;")"</f>
         <v>(cm)</v>
       </c>
-      <c r="R187" s="1263"/>
-      <c r="S187" s="1264" t="s">
+      <c r="R187" s="1272"/>
+      <c r="S187" s="1273" t="s">
         <v>441</v>
       </c>
-      <c r="T187" s="1265"/>
-      <c r="U187" s="1266" t="s">
+      <c r="T187" s="1274"/>
+      <c r="U187" s="1275" t="s">
         <v>440</v>
       </c>
-      <c r="V187" s="1267"/>
+      <c r="V187" s="1276"/>
       <c r="W187" s="67"/>
       <c r="X187" s="668" t="s">
         <v>336</v>
@@ -33101,10 +33098,10 @@
         <v>440</v>
       </c>
       <c r="G311" s="833"/>
-      <c r="H311" s="1276" t="s">
+      <c r="H311" s="1256" t="s">
         <v>444</v>
       </c>
-      <c r="I311" s="1277"/>
+      <c r="I311" s="1257"/>
       <c r="J311" s="437"/>
       <c r="K311" s="67"/>
       <c r="L311" s="682" t="s">
@@ -34048,7 +34045,7 @@
         <v/>
       </c>
       <c r="AE328" s="557" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AF328" s="543"/>
       <c r="AJ328" s="329"/>
@@ -34107,7 +34104,7 @@
         <v/>
       </c>
       <c r="AE329" s="557" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AF329" s="543"/>
       <c r="AJ329" s="329"/>
@@ -34166,7 +34163,7 @@
         <v/>
       </c>
       <c r="AE330" s="557" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AF330" s="543"/>
       <c r="AJ330" s="329"/>
@@ -34266,7 +34263,7 @@
         <v/>
       </c>
       <c r="AE332" s="557" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AJ332" s="329"/>
     </row>
@@ -34317,7 +34314,7 @@
         <v/>
       </c>
       <c r="AE333" s="557" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AJ333" s="329"/>
     </row>
@@ -34394,7 +34391,7 @@
         <v/>
       </c>
       <c r="AE334" s="557" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AJ334" s="329"/>
     </row>
@@ -45785,7 +45782,7 @@
       <c r="Q540" s="49"/>
       <c r="R540" s="49"/>
       <c r="S540" s="49"/>
-      <c r="T540" s="1258" t="s">
+      <c r="T540" s="1267" t="s">
         <v>782</v>
       </c>
       <c r="U540" s="49"/>
@@ -45855,7 +45852,7 @@
       <c r="S541" s="97" t="s">
         <v>783</v>
       </c>
-      <c r="T541" s="1259"/>
+      <c r="T541" s="1268"/>
       <c r="U541" s="49"/>
       <c r="V541" s="49"/>
       <c r="W541" s="67"/>
@@ -46398,7 +46395,7 @@
       </c>
       <c r="Q552" s="49"/>
       <c r="R552" s="341" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S552" s="49"/>
       <c r="T552" s="49"/>
@@ -46992,7 +46989,7 @@
       <c r="M564" s="136"/>
       <c r="N564" s="49"/>
       <c r="O564" s="48" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P564" s="1151" t="str">
         <f t="shared" ref="P564:P581" si="108">IF(S564&lt;&gt;"",S564,IF(AB271="","",AB271))</f>
@@ -47172,7 +47169,7 @@
       <c r="M568" s="136"/>
       <c r="N568" s="49"/>
       <c r="O568" s="48" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="P568" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47221,7 +47218,7 @@
       <c r="M569" s="136"/>
       <c r="N569" s="49"/>
       <c r="O569" s="48" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P569" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47273,7 +47270,7 @@
       <c r="M570" s="136"/>
       <c r="N570" s="49"/>
       <c r="O570" s="48" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P570" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47327,7 +47324,7 @@
       <c r="M571" s="136"/>
       <c r="N571" s="49"/>
       <c r="O571" s="48" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="P571" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47370,7 +47367,7 @@
       <c r="M572" s="136"/>
       <c r="N572" s="49"/>
       <c r="O572" s="48" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P572" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47415,7 +47412,7 @@
       <c r="M573" s="136"/>
       <c r="N573" s="49"/>
       <c r="O573" s="48" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P573" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47462,7 +47459,7 @@
       <c r="M574" s="136"/>
       <c r="N574" s="49"/>
       <c r="O574" s="48" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P574" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47507,7 +47504,7 @@
       <c r="M575" s="136"/>
       <c r="N575" s="49"/>
       <c r="O575" s="48" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="P575" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47550,7 +47547,7 @@
       <c r="M576" s="136"/>
       <c r="N576" s="49"/>
       <c r="O576" s="48" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="P576" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47597,7 +47594,7 @@
       <c r="M577" s="136"/>
       <c r="N577" s="49"/>
       <c r="O577" s="48" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P577" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47642,7 +47639,7 @@
       <c r="M578" s="136"/>
       <c r="N578" s="49"/>
       <c r="O578" s="48" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P578" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47685,7 +47682,7 @@
       <c r="M579" s="136"/>
       <c r="N579" s="49"/>
       <c r="O579" s="48" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P579" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47732,7 +47729,7 @@
       <c r="M580" s="136"/>
       <c r="N580" s="49"/>
       <c r="O580" s="48" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P580" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47775,7 +47772,7 @@
       <c r="M581" s="136"/>
       <c r="N581" s="49"/>
       <c r="O581" s="48" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="P581" s="1151" t="str">
         <f t="shared" si="108"/>
@@ -47950,7 +47947,7 @@
       </c>
       <c r="M585" s="136"/>
       <c r="N585" s="48" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O585" s="1231">
         <v>100</v>
@@ -47992,7 +47989,7 @@
       </c>
       <c r="M586" s="136"/>
       <c r="N586" s="48" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O586" s="1231">
         <v>1</v>
@@ -48180,8 +48177,8 @@
         <v>336</v>
       </c>
       <c r="M590" s="136"/>
-      <c r="N590" s="1278" t="s">
-        <v>949</v>
+      <c r="N590" s="1258" t="s">
+        <v>948</v>
       </c>
       <c r="O590" s="1167"/>
       <c r="P590" s="1167"/>
@@ -48220,7 +48217,7 @@
         <v>336</v>
       </c>
       <c r="M591" s="136"/>
-      <c r="N591" s="1278"/>
+      <c r="N591" s="1258"/>
       <c r="O591" s="1167"/>
       <c r="P591" s="1167"/>
       <c r="Q591" s="1167"/>
@@ -48248,7 +48245,7 @@
         <v>336</v>
       </c>
       <c r="M592" s="136"/>
-      <c r="N592" s="1278"/>
+      <c r="N592" s="1258"/>
       <c r="O592" s="1167"/>
       <c r="P592" s="1167"/>
       <c r="Q592" s="1167"/>
@@ -48296,7 +48293,7 @@
       </c>
       <c r="M593" s="136"/>
       <c r="N593" s="1143" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O593" s="1180" t="str">
         <f>IF(O590="","",$O$585*$O$586*AVERAGE(O590:O592)/(P$575*P$574))</f>
@@ -48351,8 +48348,8 @@
         <v>336</v>
       </c>
       <c r="M594" s="136"/>
-      <c r="N594" s="1278" t="s">
-        <v>950</v>
+      <c r="N594" s="1258" t="s">
+        <v>949</v>
       </c>
       <c r="O594" s="1167"/>
       <c r="P594" s="1167"/>
@@ -48385,7 +48382,7 @@
         <v>336</v>
       </c>
       <c r="M595" s="136"/>
-      <c r="N595" s="1278"/>
+      <c r="N595" s="1258"/>
       <c r="O595" s="1167"/>
       <c r="P595" s="1167"/>
       <c r="Q595" s="1167"/>
@@ -48422,7 +48419,7 @@
         <v>336</v>
       </c>
       <c r="M596" s="136"/>
-      <c r="N596" s="1278"/>
+      <c r="N596" s="1258"/>
       <c r="O596" s="1167"/>
       <c r="P596" s="1167"/>
       <c r="Q596" s="1167"/>
@@ -48456,7 +48453,7 @@
       </c>
       <c r="M597" s="136"/>
       <c r="N597" s="1143" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O597" s="1180" t="str">
         <f>IF(O594="","",$O$585*$O$586*AVERAGE(O594:O596)/(P$575*P$574))</f>
@@ -48489,7 +48486,7 @@
       </c>
       <c r="M598" s="136"/>
       <c r="N598" s="1143" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O598" s="1180" t="str">
         <f>IF(OR(O593="",O597=""),"",(2/3)*O597+(1/3)*O593)</f>
@@ -48532,7 +48529,7 @@
       </c>
       <c r="M599" s="136"/>
       <c r="N599" s="1149" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O599" s="1180" t="str">
         <f>IF(O598="","",O598*P$575*P$574/P$576)</f>
@@ -49212,7 +49209,7 @@
       </c>
       <c r="M613" s="1184"/>
       <c r="N613" s="48" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O613" s="1167"/>
       <c r="P613" s="1167"/>
@@ -49260,7 +49257,7 @@
       </c>
       <c r="M614" s="1184"/>
       <c r="N614" s="48" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O614" s="1167"/>
       <c r="P614" s="1167"/>
@@ -49312,7 +49309,7 @@
       </c>
       <c r="M615" s="1184"/>
       <c r="N615" s="48" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O615" s="1167"/>
       <c r="P615" s="1167"/>
@@ -49364,7 +49361,7 @@
       </c>
       <c r="M616" s="1184"/>
       <c r="N616" s="48" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O616" s="1167"/>
       <c r="P616" s="1167"/>
@@ -49414,10 +49411,10 @@
       <c r="L617" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M617" s="1279" t="s">
+      <c r="M617" s="1259" t="s">
         <v>889</v>
       </c>
-      <c r="N617" s="1278"/>
+      <c r="N617" s="1258"/>
       <c r="O617" s="1167"/>
       <c r="P617" s="1167"/>
       <c r="Q617" s="1167"/>
@@ -49460,8 +49457,8 @@
       <c r="L618" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M618" s="1279"/>
-      <c r="N618" s="1278"/>
+      <c r="M618" s="1259"/>
+      <c r="N618" s="1258"/>
       <c r="O618" s="1167"/>
       <c r="P618" s="1167"/>
       <c r="Q618" s="1167"/>
@@ -49504,8 +49501,8 @@
       <c r="L619" s="682" t="s">
         <v>336</v>
       </c>
-      <c r="M619" s="1279"/>
-      <c r="N619" s="1278"/>
+      <c r="M619" s="1259"/>
+      <c r="N619" s="1258"/>
       <c r="O619" s="1167"/>
       <c r="P619" s="1167"/>
       <c r="Q619" s="1167"/>
@@ -49728,7 +49725,7 @@
         <v>31</v>
       </c>
       <c r="B625" s="1188" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C625" s="1233"/>
       <c r="D625" s="1233"/>
@@ -49765,10 +49762,10 @@
         <v>32</v>
       </c>
       <c r="B626" s="129"/>
-      <c r="E626" s="1280" t="s">
+      <c r="E626" s="1260" t="s">
         <v>938</v>
       </c>
-      <c r="F626" s="1280" t="s">
+      <c r="F626" s="1260" t="s">
         <v>939</v>
       </c>
       <c r="H626" s="49"/>
@@ -49807,8 +49804,8 @@
       <c r="D627" s="127" t="s">
         <v>772</v>
       </c>
-      <c r="E627" s="1281"/>
-      <c r="F627" s="1282"/>
+      <c r="E627" s="1261"/>
+      <c r="F627" s="1262"/>
       <c r="H627" s="48" t="s">
         <v>775</v>
       </c>
@@ -49991,7 +49988,7 @@
         <v>336</v>
       </c>
       <c r="M630" s="1186" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N630" s="1167"/>
       <c r="O630" s="1167"/>
@@ -50048,7 +50045,7 @@
         <v>336</v>
       </c>
       <c r="M631" s="1186" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="N631" s="1167"/>
       <c r="O631" s="1167"/>
@@ -50105,7 +50102,7 @@
         <v>336</v>
       </c>
       <c r="M632" s="1186" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="N632" s="1167"/>
       <c r="O632" s="1167"/>
@@ -50162,7 +50159,7 @@
         <v>336</v>
       </c>
       <c r="M633" s="1186" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N633" s="1167"/>
       <c r="O633" s="1167"/>
@@ -50219,7 +50216,7 @@
         <v>336</v>
       </c>
       <c r="M634" s="1186" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="N634" s="1167"/>
       <c r="O634" s="1167"/>
@@ -50272,7 +50269,7 @@
         <v>336</v>
       </c>
       <c r="M635" s="1186" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="N635" s="1167"/>
       <c r="O635" s="1167"/>
@@ -53369,7 +53366,7 @@
         <v>3</v>
       </c>
       <c r="B729" s="1228" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C729" s="1217"/>
       <c r="D729" s="118" t="s">
@@ -53399,7 +53396,7 @@
       </c>
       <c r="B730" s="136"/>
       <c r="C730" s="48" t="s">
-        <v>369</v>
+        <v>790</v>
       </c>
       <c r="D730" s="1190" t="str">
         <f t="shared" ref="D730:D746" si="129">IF(P564="","",P564)</f>
@@ -53431,7 +53428,7 @@
       </c>
       <c r="B731" s="136"/>
       <c r="C731" s="48" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D731" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53463,7 +53460,7 @@
       </c>
       <c r="B732" s="136"/>
       <c r="C732" s="48" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="D732" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53495,7 +53492,7 @@
       </c>
       <c r="B733" s="136"/>
       <c r="C733" s="48" t="s">
-        <v>791</v>
+        <v>426</v>
       </c>
       <c r="D733" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53527,7 +53524,7 @@
       </c>
       <c r="B734" s="136"/>
       <c r="C734" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D734" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53559,7 +53556,7 @@
       </c>
       <c r="B735" s="136"/>
       <c r="C735" s="48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D735" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53591,7 +53588,7 @@
       </c>
       <c r="B736" s="136"/>
       <c r="C736" s="48" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D736" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53623,7 +53620,7 @@
       </c>
       <c r="B737" s="136"/>
       <c r="C737" s="48" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D737" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53655,7 +53652,7 @@
       </c>
       <c r="B738" s="136"/>
       <c r="C738" s="48" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D738" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53687,7 +53684,7 @@
       </c>
       <c r="B739" s="136"/>
       <c r="C739" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D739" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53719,7 +53716,7 @@
       </c>
       <c r="B740" s="136"/>
       <c r="C740" s="48" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D740" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53751,7 +53748,7 @@
       </c>
       <c r="B741" s="136"/>
       <c r="C741" s="48" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D741" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53783,7 +53780,7 @@
       </c>
       <c r="B742" s="136"/>
       <c r="C742" s="48" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D742" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53815,7 +53812,7 @@
       </c>
       <c r="B743" s="136"/>
       <c r="C743" s="48" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D743" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53847,7 +53844,7 @@
       </c>
       <c r="B744" s="136"/>
       <c r="C744" s="48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D744" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53879,7 +53876,7 @@
       </c>
       <c r="B745" s="136"/>
       <c r="C745" s="48" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D745" s="1192" t="str">
         <f t="shared" si="129"/>
@@ -53911,7 +53908,7 @@
       </c>
       <c r="B746" s="136"/>
       <c r="C746" s="48" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D746" s="1194" t="str">
         <f t="shared" si="129"/>
@@ -53942,7 +53939,9 @@
         <v>21</v>
       </c>
       <c r="B747" s="136"/>
-      <c r="C747" s="49"/>
+      <c r="C747" s="48" t="s">
+        <v>804</v>
+      </c>
       <c r="D747" s="49"/>
       <c r="E747" s="49"/>
       <c r="F747" s="49"/>
@@ -54123,7 +54122,7 @@
       <c r="B754" s="136"/>
       <c r="C754" s="1165"/>
       <c r="D754" s="1166" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E754" s="1199" t="str">
         <f>IF(O590="","",O593)</f>
@@ -54161,7 +54160,7 @@
       <c r="B755" s="136"/>
       <c r="C755" s="1165"/>
       <c r="D755" s="1166" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E755" s="1156" t="str">
         <f>IF(O594="","",O597)</f>
@@ -54316,15 +54315,15 @@
         <v>943</v>
       </c>
       <c r="E759" s="1159" t="str">
-        <f>IF(O602="","",O602)</f>
+        <f>IF(O603="","",O603)</f>
         <v/>
       </c>
       <c r="F759" s="1160" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" ref="F759" si="137">IF(P603="","",P603)</f>
         <v/>
       </c>
       <c r="G759" s="1161" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" ref="G759" si="138">IF(Q603="","",Q603)</f>
         <v/>
       </c>
       <c r="H759" s="49"/>
@@ -54352,11 +54351,11 @@
         <v/>
       </c>
       <c r="F760" s="1163" t="str">
-        <f t="shared" ref="F760:G760" si="137">IF(P604="","",P604)</f>
+        <f t="shared" ref="F760:G760" si="139">IF(P604="","",P604)</f>
         <v/>
       </c>
       <c r="G760" s="1164" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="H760" s="49"/>
@@ -54384,11 +54383,11 @@
         <v/>
       </c>
       <c r="F761" s="1154" t="str">
-        <f t="shared" ref="F761:G761" si="138">IF(P605="","",P605)</f>
+        <f t="shared" ref="F761:G761" si="140">IF(P605="","",P605)</f>
         <v/>
       </c>
       <c r="G761" s="1155" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="H761" s="49"/>
@@ -54409,18 +54408,18 @@
       <c r="B762" s="136"/>
       <c r="C762" s="341"/>
       <c r="D762" s="48" t="s">
-        <v>945</v>
+        <v>870</v>
       </c>
       <c r="E762" s="1206" t="str">
         <f>IF(O606="","",O606)</f>
         <v/>
       </c>
       <c r="F762" s="1207" t="str">
-        <f t="shared" ref="F762:G762" si="139">IF(P606="","",P606)</f>
+        <f t="shared" ref="F762:G762" si="141">IF(P606="","",P606)</f>
         <v/>
       </c>
       <c r="G762" s="1208" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="H762" s="49"/>
@@ -54579,19 +54578,19 @@
         <v>884</v>
       </c>
       <c r="D769" s="1205" t="str">
-        <f t="shared" ref="D769:G772" si="140">IF(O613="","",O613)</f>
+        <f t="shared" ref="D769:G772" si="142">IF(O613="","",O613)</f>
         <v/>
       </c>
       <c r="E769" s="1171" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F769" s="1171" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G769" s="1172" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H769" s="49"/>
@@ -54614,19 +54613,19 @@
         <v>885</v>
       </c>
       <c r="D770" s="1212" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="E770" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F770" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G770" s="1174" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H770" s="49"/>
@@ -54649,19 +54648,19 @@
         <v>887</v>
       </c>
       <c r="D771" s="1212" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="E771" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F771" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G771" s="1174" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H771" s="49"/>
@@ -54684,19 +54683,19 @@
         <v>888</v>
       </c>
       <c r="D772" s="1212" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="E772" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="F772" s="127" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="G772" s="1174" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="H772" s="49"/>
@@ -54716,7 +54715,7 @@
       </c>
       <c r="B773" s="1184"/>
       <c r="C773" s="48" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D773" s="1213" t="str">
         <f>IF(O620="","",O620)</f>
@@ -55253,27 +55252,27 @@
         <v>369</v>
       </c>
       <c r="D796" s="1221">
-        <f t="shared" ref="D796:I803" si="141">IF(N628="","",N628)</f>
+        <f t="shared" ref="D796:I803" si="143">IF(N628="","",N628)</f>
         <v>80</v>
       </c>
       <c r="E796" s="1222">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>100</v>
       </c>
       <c r="F796" s="1222">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>110</v>
       </c>
       <c r="G796" s="1222">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>120</v>
       </c>
       <c r="H796" s="1222">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>130</v>
       </c>
       <c r="I796" s="1223">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>140</v>
       </c>
       <c r="J796" s="49"/>
@@ -55294,27 +55293,27 @@
         <v>426</v>
       </c>
       <c r="D797" s="1212" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E797" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F797" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="G797" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="H797" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="I797" s="1174" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="J797" s="49"/>
@@ -55335,27 +55334,27 @@
         <v>895</v>
       </c>
       <c r="D798" s="1212" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E798" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F798" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="G798" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="H798" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="I798" s="1174" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="J798" s="49"/>
@@ -55376,27 +55375,27 @@
         <v>896</v>
       </c>
       <c r="D799" s="1212" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E799" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F799" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="G799" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="H799" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="I799" s="1174" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="J799" s="49"/>
@@ -55417,27 +55416,27 @@
         <v>897</v>
       </c>
       <c r="D800" s="1212" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E800" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F800" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="G800" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="H800" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="I800" s="1174" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="J800" s="49"/>
@@ -55458,27 +55457,27 @@
         <v>898</v>
       </c>
       <c r="D801" s="1212" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E801" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F801" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="G801" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="H801" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="I801" s="1174" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="J801" s="49"/>
@@ -55499,27 +55498,27 @@
         <v>899</v>
       </c>
       <c r="D802" s="1212" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E802" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F802" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="G802" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="H802" s="127" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="I802" s="1174" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="J802" s="49"/>
@@ -55540,27 +55539,27 @@
         <v>900</v>
       </c>
       <c r="D803" s="186" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="E803" s="1176" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="F803" s="1176" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="G803" s="1176" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="H803" s="1176" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="I803" s="189" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="J803" s="49"/>
@@ -55702,23 +55701,23 @@
         <v>905</v>
       </c>
       <c r="E809" s="1205" t="str">
-        <f t="shared" ref="E809:I815" si="142">IF(O641="","",O641)</f>
+        <f t="shared" ref="E809:I815" si="144">IF(O641="","",O641)</f>
         <v/>
       </c>
       <c r="F809" s="1171" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G809" s="1171" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H809" s="1171" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="I809" s="1172" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="J809" s="341"/>
@@ -55740,23 +55739,23 @@
         <v>906</v>
       </c>
       <c r="E810" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F810" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G810" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H810" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="I810" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="J810" s="341"/>
@@ -55778,23 +55777,23 @@
         <v>907</v>
       </c>
       <c r="E811" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F811" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G811" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H811" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="I811" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="J811" s="341"/>
@@ -55816,23 +55815,23 @@
         <v>890</v>
       </c>
       <c r="E812" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F812" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G812" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H812" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="I812" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="J812" s="341"/>
@@ -55854,23 +55853,23 @@
         <v>908</v>
       </c>
       <c r="E813" s="1212" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F813" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G813" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H813" s="127" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="I813" s="1174" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="J813" s="341"/>
@@ -55892,23 +55891,23 @@
         <v>909</v>
       </c>
       <c r="E814" s="186" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F814" s="1176" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G814" s="1176" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H814" s="1176" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="I814" s="189" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="J814" s="341"/>
@@ -55930,23 +55929,23 @@
         <v>424</v>
       </c>
       <c r="E815" s="1153" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="F815" s="1154" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G815" s="1154" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="H815" s="1154" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="I815" s="1155" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="J815" s="341"/>
@@ -56058,10 +56057,10 @@
       </c>
       <c r="B820" s="1184"/>
       <c r="C820" s="341"/>
-      <c r="D820" s="1274" t="s">
+      <c r="D820" s="1254" t="s">
         <v>786</v>
       </c>
-      <c r="E820" s="1274"/>
+      <c r="E820" s="1254"/>
       <c r="F820" s="49"/>
       <c r="G820" s="49"/>
       <c r="H820" s="341"/>
@@ -56109,11 +56108,11 @@
         <v>914</v>
       </c>
       <c r="D822" s="1224" t="str">
-        <f t="shared" ref="D822:E826" si="143">IF(N654="","",N654)</f>
+        <f t="shared" ref="D822:E826" si="145">IF(N654="","",N654)</f>
         <v/>
       </c>
       <c r="E822" s="1224" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="F822" s="49"/>
@@ -56143,11 +56142,11 @@
         <v>173</v>
       </c>
       <c r="D823" s="1227" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="E823" s="1225" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="F823" s="49"/>
@@ -56174,14 +56173,14 @@
       </c>
       <c r="B824" s="1184"/>
       <c r="C824" s="48" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D824" s="1225" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="E824" s="1225" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="F824" s="49"/>
@@ -56206,11 +56205,11 @@
         <v>919</v>
       </c>
       <c r="D825" s="1225" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="E825" s="1225" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="F825" s="49"/>
@@ -56235,11 +56234,11 @@
         <v>920</v>
       </c>
       <c r="D826" s="1226" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="E826" s="1226" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="F826" s="49"/>
@@ -56411,23 +56410,23 @@
         <v>925</v>
       </c>
       <c r="C833" s="1205" t="str">
-        <f t="shared" ref="C833:G837" si="144">IF(N662="","",N662)</f>
+        <f t="shared" ref="C833:G837" si="146">IF(N662="","",N662)</f>
         <v/>
       </c>
       <c r="D833" s="1172" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="E833" s="1205" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="F833" s="1171" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="G833" s="1172" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="H833" s="341"/>
@@ -56449,23 +56448,23 @@
         <v>926</v>
       </c>
       <c r="C834" s="1212" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="D834" s="1174" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="E834" s="1212" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="F834" s="127" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="G834" s="1174" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="H834" s="341"/>
@@ -56487,23 +56486,23 @@
         <v>927</v>
       </c>
       <c r="C835" s="1212" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="D835" s="1174" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="E835" s="1212" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="F835" s="127" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="G835" s="1174" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="H835" s="341"/>
@@ -56525,23 +56524,23 @@
         <v>928</v>
       </c>
       <c r="C836" s="1212" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="D836" s="1174" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="E836" s="1212" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="F836" s="127" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="G836" s="1174" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="H836" s="341"/>
@@ -56563,23 +56562,23 @@
         <v>929</v>
       </c>
       <c r="C837" s="186" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="D837" s="189" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="E837" s="186" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="F837" s="1176" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="G837" s="189" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="H837" s="341"/>
@@ -57133,14 +57132,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
-    <mergeCell ref="D820:E820"/>
-    <mergeCell ref="AH126:AI126"/>
-    <mergeCell ref="H311:I311"/>
-    <mergeCell ref="N590:N592"/>
-    <mergeCell ref="N594:N596"/>
-    <mergeCell ref="M617:N619"/>
-    <mergeCell ref="E626:E627"/>
-    <mergeCell ref="F626:F627"/>
     <mergeCell ref="J71:K71"/>
     <mergeCell ref="U67:V67"/>
     <mergeCell ref="T540:T541"/>
@@ -57153,6 +57144,14 @@
     <mergeCell ref="O186:P186"/>
     <mergeCell ref="Q186:R186"/>
     <mergeCell ref="S186:T186"/>
+    <mergeCell ref="D820:E820"/>
+    <mergeCell ref="AH126:AI126"/>
+    <mergeCell ref="H311:I311"/>
+    <mergeCell ref="N590:N592"/>
+    <mergeCell ref="N594:N596"/>
+    <mergeCell ref="M617:N619"/>
+    <mergeCell ref="E626:E627"/>
+    <mergeCell ref="F626:F627"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="T2:T5">
